--- a/STAT-SARS-CoV2-nPT-09.05.2020.xlsx
+++ b/STAT-SARS-CoV2-nPT-09.05.2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edlindemann/Documents/--- Erik Eriksen ---/-- Research --/COVID 19/GITHUB/RPT_COVID19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2399442B-4547-C84C-8D16-6BF861AD2AB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807215AD-AB5D-7D40-B924-98A9912B4824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" activeTab="2" xr2:uid="{47C6AFC8-4B9D-1645-AE0A-12E26D4B0EBF}"/>
   </bookViews>
@@ -577,7 +577,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -741,14 +741,8 @@
       <color theme="1"/>
       <name val="DejaVu Sans"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -830,12 +824,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1527,7 +1515,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1762,13 +1750,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -21645,10 +21626,10 @@
   <dimension ref="A1:AG313"/>
   <sheetViews>
     <sheetView zoomScale="116" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E67" sqref="E67"/>
+      <selection pane="bottomRight" activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -21662,31 +21643,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="17" customHeight="1" thickBot="1">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="95" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
     </row>
     <row r="2" spans="1:33" ht="43" customHeight="1" thickBot="1">
       <c r="A2" s="71" t="s">
@@ -21754,10 +21735,10 @@
       </c>
     </row>
     <row r="3" spans="1:33" ht="18" thickBot="1">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="94"/>
+      <c r="B3" s="91"/>
       <c r="C3" s="15" t="s">
         <v>20</v>
       </c>
@@ -26559,67 +26540,67 @@
       <c r="B63" s="50">
         <v>60</v>
       </c>
-      <c r="C63" s="89">
+      <c r="C63" s="14">
         <v>23271</v>
       </c>
-      <c r="D63" s="90">
+      <c r="D63" s="49">
         <f t="shared" si="0"/>
         <v>474</v>
       </c>
-      <c r="E63" s="89">
+      <c r="E63" s="13">
         <v>231616</v>
       </c>
-      <c r="F63" s="89">
+      <c r="F63" s="13">
         <f t="shared" si="1"/>
         <v>4223</v>
       </c>
-      <c r="G63" s="89">
+      <c r="G63" s="13">
         <v>1040</v>
       </c>
-      <c r="H63" s="89">
+      <c r="H63" s="13">
         <f t="shared" si="2"/>
         <v>-28</v>
       </c>
-      <c r="I63" s="89">
+      <c r="I63" s="13">
         <v>186</v>
       </c>
-      <c r="J63" s="89">
+      <c r="J63" s="13">
         <f t="shared" si="3"/>
         <v>-2</v>
       </c>
-      <c r="K63" s="89">
+      <c r="K63" s="13">
         <v>1256</v>
       </c>
-      <c r="L63" s="89">
+      <c r="L63" s="13">
         <v>20715</v>
       </c>
-      <c r="M63" s="89">
+      <c r="M63" s="13">
         <v>29932</v>
       </c>
-      <c r="N63" s="89">
+      <c r="N63" s="13">
         <v>203562</v>
       </c>
-      <c r="O63" s="89">
+      <c r="O63" s="13">
         <v>19459</v>
       </c>
-      <c r="P63" s="89">
+      <c r="P63" s="13">
         <v>880</v>
       </c>
-      <c r="Q63" s="89">
+      <c r="Q63" s="13">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="R63" s="89">
+      <c r="R63" s="13">
         <v>1277</v>
       </c>
-      <c r="S63" s="89">
+      <c r="S63" s="13">
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
-      <c r="T63" s="89">
+      <c r="T63" s="13">
         <v>4783</v>
       </c>
-      <c r="U63" s="89">
+      <c r="U63" s="13">
         <v>360195</v>
       </c>
     </row>
@@ -26694,7 +26675,7 @@
         <v>368428</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="17" thickBot="1">
+    <row r="65" spans="1:21" ht="17" thickBot="1">
       <c r="A65" s="12">
         <v>43948</v>
       </c>
@@ -26765,7 +26746,7 @@
         <v>380572</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="17" thickBot="1">
+    <row r="66" spans="1:21" ht="17" thickBot="1">
       <c r="A66" s="12">
         <v>43949</v>
       </c>
@@ -26836,7 +26817,7 @@
         <v>396061</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="17" thickBot="1">
+    <row r="67" spans="1:21" ht="17" thickBot="1">
       <c r="A67" s="12">
         <v>43950</v>
       </c>
@@ -26907,7 +26888,7 @@
         <v>410775</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="17" thickBot="1">
+    <row r="68" spans="1:21" ht="17" thickBot="1">
       <c r="A68" s="12">
         <v>43951</v>
       </c>
@@ -26978,7 +26959,7 @@
         <v>427169</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="17" thickBot="1">
+    <row r="69" spans="1:21" ht="17" thickBot="1">
       <c r="A69" s="12">
         <v>43952</v>
       </c>
@@ -27049,7 +27030,7 @@
         <v>439717</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="17" thickBot="1">
+    <row r="70" spans="1:21" ht="17" thickBot="1">
       <c r="A70" s="12">
         <v>43953</v>
       </c>
@@ -27110,7 +27091,7 @@
         <v>1671</v>
       </c>
       <c r="S70" s="13">
-        <f t="shared" ref="S70:S75" si="11">R70-R69</f>
+        <f t="shared" ref="S70:S76" si="11">R70-R69</f>
         <v>24</v>
       </c>
       <c r="T70" s="13">
@@ -27120,7 +27101,7 @@
         <v>450244</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="17" thickBot="1">
+    <row r="71" spans="1:21" ht="17" thickBot="1">
       <c r="A71" s="12">
         <v>43954</v>
       </c>
@@ -27191,7 +27172,7 @@
         <v>458702</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="18" thickBot="1">
+    <row r="72" spans="1:21" ht="17" thickBot="1">
       <c r="A72" s="12">
         <v>43955</v>
       </c>
@@ -27264,9 +27245,8 @@
       <c r="U72" s="13">
         <v>470234</v>
       </c>
-      <c r="W72" s="88"/>
-    </row>
-    <row r="73" spans="1:23" ht="17" thickBot="1">
+    </row>
+    <row r="73" spans="1:21" ht="17" thickBot="1">
       <c r="A73" s="12">
         <v>43956</v>
       </c>
@@ -27340,7 +27320,7 @@
         <v>485925</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="17" thickBot="1">
+    <row r="74" spans="1:21" ht="17" thickBot="1">
       <c r="A74" s="12">
         <v>43957</v>
       </c>
@@ -27412,7 +27392,7 @@
       </c>
       <c r="U74" s="13"/>
     </row>
-    <row r="75" spans="1:23" ht="17" thickBot="1">
+    <row r="75" spans="1:21" ht="17" thickBot="1">
       <c r="A75" s="12">
         <v>43958</v>
       </c>
@@ -27484,43 +27464,79 @@
       </c>
       <c r="U75" s="13"/>
     </row>
-    <row r="76" spans="1:23" ht="17" thickBot="1">
+    <row r="76" spans="1:21" ht="17" thickBot="1">
       <c r="A76" s="12">
         <v>43959</v>
       </c>
       <c r="B76" s="50">
         <v>73</v>
       </c>
-      <c r="C76" s="14"/>
-      <c r="D76" s="49"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
+      <c r="C76" s="14">
+        <v>27268</v>
+      </c>
+      <c r="D76" s="49">
+        <f>C76-C75</f>
+        <v>553</v>
+      </c>
+      <c r="E76" s="13">
+        <v>269266</v>
+      </c>
+      <c r="F76" s="13">
+        <f>E76-E75</f>
+        <v>3694</v>
+      </c>
+      <c r="G76" s="13">
+        <v>842</v>
+      </c>
+      <c r="H76" s="13">
+        <f>G76-G75</f>
+        <v>-32</v>
+      </c>
+      <c r="I76" s="13">
+        <v>127</v>
+      </c>
+      <c r="J76" s="13">
+        <f>I76-I75</f>
+        <v>-8</v>
+      </c>
       <c r="K76" s="13">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>969</v>
       </c>
       <c r="L76" s="13">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M76" s="13"/>
-      <c r="N76" s="13"/>
+        <v>23732</v>
+      </c>
+      <c r="M76" s="13">
+        <v>26829</v>
+      </c>
+      <c r="N76" s="13">
+        <v>239014</v>
+      </c>
       <c r="O76" s="13">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P76" s="13"/>
-      <c r="Q76" s="13"/>
-      <c r="R76" s="13"/>
-      <c r="S76" s="13"/>
-      <c r="T76" s="13"/>
+        <v>22763</v>
+      </c>
+      <c r="P76" s="13">
+        <v>1114</v>
+      </c>
+      <c r="Q76" s="13">
+        <f>P76-P75</f>
+        <v>9</v>
+      </c>
+      <c r="R76" s="13">
+        <v>2422</v>
+      </c>
+      <c r="S76" s="13">
+        <f t="shared" si="11"/>
+        <v>164</v>
+      </c>
+      <c r="T76" s="13">
+        <v>2984</v>
+      </c>
       <c r="U76" s="13"/>
     </row>
-    <row r="77" spans="1:23" ht="17" thickBot="1">
+    <row r="77" spans="1:21" ht="17" thickBot="1">
       <c r="A77" s="12">
         <v>43960</v>
       </c>
@@ -27556,7 +27572,7 @@
       <c r="T77" s="13"/>
       <c r="U77" s="13"/>
     </row>
-    <row r="78" spans="1:23" ht="17" thickBot="1">
+    <row r="78" spans="1:21" ht="17" thickBot="1">
       <c r="A78" s="12">
         <v>43961</v>
       </c>
@@ -27592,7 +27608,7 @@
       <c r="T78" s="13"/>
       <c r="U78" s="13"/>
     </row>
-    <row r="79" spans="1:23" ht="17" thickBot="1">
+    <row r="79" spans="1:21" ht="17" thickBot="1">
       <c r="A79" s="12">
         <v>43962</v>
       </c>
@@ -27628,7 +27644,7 @@
       <c r="T79" s="13"/>
       <c r="U79" s="13"/>
     </row>
-    <row r="80" spans="1:23" ht="17" thickBot="1">
+    <row r="80" spans="1:21" ht="17" thickBot="1">
       <c r="A80" s="12">
         <v>43963</v>
       </c>
@@ -36069,10 +36085,10 @@
   <dimension ref="A1:W313"/>
   <sheetViews>
     <sheetView zoomScale="116" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R70" sqref="R70"/>
+      <selection pane="bottomRight" activeCell="AD55" sqref="AD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -36086,22 +36102,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="17" customHeight="1" thickBot="1">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="95" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
     </row>
     <row r="2" spans="1:23" ht="52" customHeight="1" thickBot="1">
       <c r="A2" s="71" t="s">
@@ -36142,10 +36158,10 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" thickBot="1">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="94"/>
+      <c r="B3" s="91"/>
       <c r="C3" s="15" t="s">
         <v>137</v>
       </c>
@@ -39062,10 +39078,10 @@
         <v>2.358142962417098E-2</v>
       </c>
       <c r="H66" s="53">
-        <v>6.3060786048274586E-3</v>
+        <v>6.2934411727537665E-3</v>
       </c>
       <c r="I66" s="53">
-        <v>1.2496854818418113E-2</v>
+        <v>1.2371047555145509E-2</v>
       </c>
       <c r="J66" s="53">
         <v>-5.9296482412060314E-2</v>
@@ -39074,7 +39090,7 @@
         <v>-2.2727272727272707E-2</v>
       </c>
       <c r="L66" s="53">
-        <v>1.2496854818418113E-2</v>
+        <v>1.2371047555145509E-2</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="17" thickBot="1">
@@ -39100,10 +39116,10 @@
         <v>5.8315334773218153E-2</v>
       </c>
       <c r="H67" s="53">
-        <v>1.9201547175024203E-2</v>
+        <v>1.9214346712211894E-2</v>
       </c>
       <c r="I67" s="53">
-        <v>7.4552683896620398E-3</v>
+        <v>7.5804647694792671E-3</v>
       </c>
       <c r="J67" s="53">
         <v>4.7008547008547064E-2</v>
@@ -39112,7 +39128,7 @@
         <v>-1.744186046511631E-2</v>
       </c>
       <c r="L67" s="53">
-        <v>7.4552683896620398E-3</v>
+        <v>7.5804647694792671E-3</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="17" thickBot="1">
@@ -39426,16 +39442,36 @@
       <c r="B76" s="50">
         <v>73</v>
       </c>
-      <c r="C76" s="55"/>
-      <c r="D76" s="54"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="53"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="53"/>
-      <c r="K76" s="53"/>
-      <c r="L76" s="53"/>
+      <c r="C76" s="55">
+        <v>1.195219123505975E-2</v>
+      </c>
+      <c r="D76" s="54">
+        <v>-1.7900285526026849E-2</v>
+      </c>
+      <c r="E76" s="53">
+        <v>0.11927981995498871</v>
+      </c>
+      <c r="F76" s="53">
+        <v>8.1447963800904688E-3</v>
+      </c>
+      <c r="G76" s="53">
+        <v>7.2630646589902481E-2</v>
+      </c>
+      <c r="H76" s="53">
+        <v>1.3909598903498965E-2</v>
+      </c>
+      <c r="I76" s="53">
+        <v>2.0699981283922808E-2</v>
+      </c>
+      <c r="J76" s="53">
+        <v>-3.6613272311212808E-2</v>
+      </c>
+      <c r="K76" s="53">
+        <v>-5.9259259259259234E-2</v>
+      </c>
+      <c r="L76" s="53">
+        <v>2.0699981283922808E-2</v>
+      </c>
     </row>
     <row r="77" spans="1:12" ht="17" thickBot="1">
       <c r="A77" s="12">
@@ -43723,7 +43759,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A62" sqref="A62"/>
+      <selection pane="bottomRight" activeCell="D77" sqref="D77:J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -43734,38 +43770,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="97" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="98"/>
-      <c r="E1" s="97" t="s">
+      <c r="D1" s="95"/>
+      <c r="E1" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="98"/>
-      <c r="G1" s="97" t="s">
+      <c r="F1" s="95"/>
+      <c r="G1" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="98"/>
-      <c r="I1" s="97" t="s">
+      <c r="H1" s="95"/>
+      <c r="I1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="98"/>
-      <c r="K1" s="97" t="s">
+      <c r="J1" s="95"/>
+      <c r="K1" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="98"/>
-      <c r="M1" s="97" t="s">
+      <c r="L1" s="95"/>
+      <c r="M1" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="99"/>
-      <c r="O1" s="100" t="s">
+      <c r="N1" s="96"/>
+      <c r="O1" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="101"/>
+      <c r="P1" s="98"/>
     </row>
     <row r="2" spans="1:16" ht="18" thickBot="1">
       <c r="A2" s="77" t="s">
@@ -47430,20 +47466,48 @@
       <c r="B75" s="50">
         <v>73</v>
       </c>
-      <c r="C75" s="7"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="9"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="9"/>
-      <c r="P75" s="8"/>
+      <c r="C75" s="7">
+        <v>15809</v>
+      </c>
+      <c r="D75" s="8">
+        <v>639</v>
+      </c>
+      <c r="E75" s="9">
+        <v>3564</v>
+      </c>
+      <c r="F75" s="8">
+        <v>214</v>
+      </c>
+      <c r="G75" s="9">
+        <v>7093</v>
+      </c>
+      <c r="H75" s="8">
+        <v>233</v>
+      </c>
+      <c r="I75" s="9">
+        <v>232</v>
+      </c>
+      <c r="J75" s="8">
+        <v>1</v>
+      </c>
+      <c r="K75" s="9">
+        <v>345</v>
+      </c>
+      <c r="L75" s="8">
+        <v>13</v>
+      </c>
+      <c r="M75" s="9">
+        <v>90</v>
+      </c>
+      <c r="N75" s="8">
+        <v>0</v>
+      </c>
+      <c r="O75" s="9">
+        <v>135</v>
+      </c>
+      <c r="P75" s="8">
+        <v>14</v>
+      </c>
     </row>
     <row r="76" spans="1:18" ht="17" thickBot="1">
       <c r="A76" s="12">
@@ -53280,17 +53344,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="106" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
     </row>
     <row r="2" spans="1:7" ht="20" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -55133,19 +55197,19 @@
       </c>
       <c r="C70" s="38">
         <f>'DGS - EKL &amp; VOST'!C76</f>
-        <v>0</v>
+        <v>27268</v>
       </c>
       <c r="D70" s="7">
         <f>ROUND(C70/'BEAR PT - EKL'!$T$6,0)</f>
-        <v>0</v>
+        <v>9275</v>
       </c>
       <c r="E70" s="7">
         <f>ROUND(C70/'BEAR PT - EKL'!$T$8,0)</f>
-        <v>0</v>
+        <v>45447</v>
       </c>
       <c r="F70" s="7">
         <f>ROUND(C70/'BEAR PT - EKL'!$T$9,0)</f>
-        <v>0</v>
+        <v>85213</v>
       </c>
       <c r="G70" s="7"/>
     </row>
@@ -61089,7 +61153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9430E89-8C4A-9848-8F9C-310318091DF7}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
@@ -65181,19 +65245,19 @@
       <c r="O2" t="s">
         <v>154</v>
       </c>
-      <c r="R2" s="108" t="s">
+      <c r="R2" s="105" t="s">
         <v>152</v>
       </c>
-      <c r="S2" s="109"/>
-      <c r="T2" s="110"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="107"/>
       <c r="U2" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="V2" s="108" t="s">
+      <c r="V2" s="105" t="s">
         <v>153</v>
       </c>
-      <c r="W2" s="109"/>
-      <c r="X2" s="110"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="107"/>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="79">
@@ -65298,11 +65362,11 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="I5" s="108" t="s">
+      <c r="I5" s="105" t="s">
         <v>157</v>
       </c>
-      <c r="J5" s="109"/>
-      <c r="K5" s="110"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="107"/>
       <c r="N5">
         <v>3.58</v>
       </c>

--- a/STAT-SARS-CoV2-nPT-09.05.2020.xlsx
+++ b/STAT-SARS-CoV2-nPT-09.05.2020.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edlindemann/Documents/--- Erik Eriksen ---/-- Research --/COVID 19/GITHUB/RPT_COVID19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807215AD-AB5D-7D40-B924-98A9912B4824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139B3FE6-E1A2-3445-86CE-D2B766418FD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" activeTab="2" xr2:uid="{47C6AFC8-4B9D-1645-AE0A-12E26D4B0EBF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" activeTab="3" xr2:uid="{47C6AFC8-4B9D-1645-AE0A-12E26D4B0EBF}"/>
   </bookViews>
   <sheets>
     <sheet name="DGS - EKL &amp; VOST" sheetId="2" r:id="rId1"/>
     <sheet name="DGS-VAR(%)-VOST" sheetId="25" r:id="rId2"/>
     <sheet name="DGS - Regiões" sheetId="4" r:id="rId3"/>
-    <sheet name="BEAR PT - EKL" sheetId="6" r:id="rId4"/>
-    <sheet name="EKL - BEAR SIM" sheetId="10" r:id="rId5"/>
-    <sheet name="EKL - Rt-PT" sheetId="26" r:id="rId6"/>
+    <sheet name="EKL - Rt-PT-7" sheetId="26" r:id="rId4"/>
+    <sheet name="BEAR PT - EKL" sheetId="6" r:id="rId5"/>
+    <sheet name="EKL - BEAR SIM" sheetId="10" r:id="rId6"/>
     <sheet name="EKL - DE - Nowcast_R" sheetId="21" r:id="rId7"/>
     <sheet name="covid_de" sheetId="29" r:id="rId8"/>
   </sheets>
@@ -577,7 +577,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -739,6 +739,11 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="DejaVu Sans"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
     </font>
   </fonts>
@@ -1515,7 +1520,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1750,6 +1755,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -21626,10 +21633,10 @@
   <dimension ref="A1:AG313"/>
   <sheetViews>
     <sheetView zoomScale="116" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C77" sqref="C77"/>
+      <selection pane="bottomRight" activeCell="O72" sqref="O72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -21643,31 +21650,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="17" customHeight="1" thickBot="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="92" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
     </row>
     <row r="2" spans="1:33" ht="43" customHeight="1" thickBot="1">
       <c r="A2" s="71" t="s">
@@ -21735,10 +21742,10 @@
       </c>
     </row>
     <row r="3" spans="1:33" ht="18" thickBot="1">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="91"/>
+      <c r="B3" s="93"/>
       <c r="C3" s="15" t="s">
         <v>20</v>
       </c>
@@ -27091,7 +27098,7 @@
         <v>1671</v>
       </c>
       <c r="S70" s="13">
-        <f t="shared" ref="S70:S76" si="11">R70-R69</f>
+        <f t="shared" ref="S70:S77" si="11">R70-R69</f>
         <v>24</v>
       </c>
       <c r="T70" s="13">
@@ -27543,33 +27550,69 @@
       <c r="B77" s="50">
         <v>74</v>
       </c>
-      <c r="C77" s="14"/>
-      <c r="D77" s="49"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
+      <c r="C77" s="14">
+        <v>27406</v>
+      </c>
+      <c r="D77" s="49">
+        <f>C77-C76</f>
+        <v>138</v>
+      </c>
+      <c r="E77" s="13">
+        <v>272443</v>
+      </c>
+      <c r="F77" s="13">
+        <f>E77-E76</f>
+        <v>3177</v>
+      </c>
+      <c r="G77" s="13">
+        <v>815</v>
+      </c>
+      <c r="H77" s="13">
+        <f>G77-G76</f>
+        <v>-27</v>
+      </c>
+      <c r="I77" s="13">
+        <v>120</v>
+      </c>
+      <c r="J77" s="13">
+        <f>I77-I76</f>
+        <v>-7</v>
+      </c>
       <c r="K77" s="13">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>935</v>
       </c>
       <c r="L77" s="13">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
+        <v>23781</v>
+      </c>
+      <c r="M77" s="13">
+        <v>26667</v>
+      </c>
+      <c r="N77" s="13">
+        <v>242082</v>
+      </c>
       <c r="O77" s="13">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P77" s="13"/>
-      <c r="Q77" s="13"/>
-      <c r="R77" s="13"/>
-      <c r="S77" s="13"/>
-      <c r="T77" s="13"/>
+        <v>22846</v>
+      </c>
+      <c r="P77" s="13">
+        <v>1126</v>
+      </c>
+      <c r="Q77" s="13">
+        <f>P77-P76</f>
+        <v>12</v>
+      </c>
+      <c r="R77" s="13">
+        <v>2499</v>
+      </c>
+      <c r="S77" s="13">
+        <f t="shared" si="11"/>
+        <v>77</v>
+      </c>
+      <c r="T77" s="13">
+        <v>2955</v>
+      </c>
       <c r="U77" s="13"/>
     </row>
     <row r="78" spans="1:21" ht="17" thickBot="1">
@@ -36088,7 +36131,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD55" sqref="AD55"/>
+      <selection pane="bottomRight" activeCell="C77" sqref="C77:L77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -36102,22 +36145,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="17" customHeight="1" thickBot="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="92" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
     </row>
     <row r="2" spans="1:23" ht="52" customHeight="1" thickBot="1">
       <c r="A2" s="71" t="s">
@@ -36158,10 +36201,10 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" thickBot="1">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="91"/>
+      <c r="B3" s="93"/>
       <c r="C3" s="15" t="s">
         <v>137</v>
       </c>
@@ -39480,16 +39523,36 @@
       <c r="B77" s="50">
         <v>74</v>
       </c>
-      <c r="C77" s="55"/>
-      <c r="D77" s="54"/>
-      <c r="E77" s="53"/>
-      <c r="F77" s="53"/>
-      <c r="G77" s="53"/>
-      <c r="H77" s="53"/>
-      <c r="I77" s="53"/>
-      <c r="J77" s="53"/>
-      <c r="K77" s="53"/>
-      <c r="L77" s="53"/>
+      <c r="C77" s="55">
+        <v>1.2836068180106519E-2</v>
+      </c>
+      <c r="D77" s="54">
+        <v>-6.0382422006037828E-3</v>
+      </c>
+      <c r="E77" s="53">
+        <v>-9.7184986595174605E-3</v>
+      </c>
+      <c r="F77" s="53">
+        <v>1.0771992818671361E-2</v>
+      </c>
+      <c r="G77" s="53">
+        <v>3.1791907514450823E-2</v>
+      </c>
+      <c r="H77" s="53">
+        <v>1.1798741764649012E-2</v>
+      </c>
+      <c r="I77" s="53">
+        <v>5.0608772187179518E-3</v>
+      </c>
+      <c r="J77" s="53">
+        <v>-3.2066508313539188E-2</v>
+      </c>
+      <c r="K77" s="53">
+        <v>-5.5118110236220486E-2</v>
+      </c>
+      <c r="L77" s="53">
+        <v>5.0608772187179518E-3</v>
+      </c>
     </row>
     <row r="78" spans="1:12" ht="17" thickBot="1">
       <c r="A78" s="12">
@@ -43755,11 +43818,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B633120-8753-6A4D-B047-2C4701369A20}">
   <dimension ref="A1:R315"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="116" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="H54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D77" sqref="D77:J77"/>
+      <selection pane="bottomRight" activeCell="S71" sqref="S71:S80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -43770,38 +43833,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="94" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="95"/>
-      <c r="E1" s="94" t="s">
+      <c r="D1" s="97"/>
+      <c r="E1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="95"/>
-      <c r="G1" s="94" t="s">
+      <c r="F1" s="97"/>
+      <c r="G1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="95"/>
-      <c r="I1" s="94" t="s">
+      <c r="H1" s="97"/>
+      <c r="I1" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="95"/>
-      <c r="K1" s="94" t="s">
+      <c r="J1" s="97"/>
+      <c r="K1" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="95"/>
-      <c r="M1" s="94" t="s">
+      <c r="L1" s="97"/>
+      <c r="M1" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="96"/>
-      <c r="O1" s="97" t="s">
+      <c r="N1" s="98"/>
+      <c r="O1" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="98"/>
+      <c r="P1" s="100"/>
     </row>
     <row r="2" spans="1:16" ht="18" thickBot="1">
       <c r="A2" s="77" t="s">
@@ -47516,20 +47579,48 @@
       <c r="B76" s="50">
         <v>74</v>
       </c>
-      <c r="C76" s="7"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="9"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="9"/>
-      <c r="P76" s="8"/>
+      <c r="C76" s="7">
+        <v>15854</v>
+      </c>
+      <c r="D76" s="8">
+        <v>645</v>
+      </c>
+      <c r="E76" s="9">
+        <v>3581</v>
+      </c>
+      <c r="F76" s="8">
+        <v>215</v>
+      </c>
+      <c r="G76" s="9">
+        <v>7166</v>
+      </c>
+      <c r="H76" s="8">
+        <v>238</v>
+      </c>
+      <c r="I76" s="9">
+        <v>235</v>
+      </c>
+      <c r="J76" s="8">
+        <v>1</v>
+      </c>
+      <c r="K76" s="9">
+        <v>345</v>
+      </c>
+      <c r="L76" s="8">
+        <v>13</v>
+      </c>
+      <c r="M76" s="9">
+        <v>90</v>
+      </c>
+      <c r="N76" s="8">
+        <v>0</v>
+      </c>
+      <c r="O76" s="9">
+        <v>135</v>
+      </c>
+      <c r="P76" s="8">
+        <v>14</v>
+      </c>
     </row>
     <row r="77" spans="1:18" ht="17" thickBot="1">
       <c r="A77" s="12">
@@ -52807,6 +52898,1733 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9430E89-8C4A-9848-8F9C-310318091DF7}">
+  <dimension ref="A1:H66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="4" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="80">
+        <v>1</v>
+      </c>
+      <c r="B2" s="81">
+        <v>1</v>
+      </c>
+      <c r="C2" s="81">
+        <v>2</v>
+      </c>
+      <c r="D2" s="81">
+        <v>8</v>
+      </c>
+      <c r="E2" s="82">
+        <v>43897</v>
+      </c>
+      <c r="F2" s="81">
+        <v>2.1764043000000002</v>
+      </c>
+      <c r="G2" s="81">
+        <v>5.0021531000000001</v>
+      </c>
+      <c r="H2" s="81">
+        <v>9.4025379999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="80">
+        <v>2</v>
+      </c>
+      <c r="B3" s="81">
+        <v>2</v>
+      </c>
+      <c r="C3" s="81">
+        <v>3</v>
+      </c>
+      <c r="D3" s="81">
+        <v>9</v>
+      </c>
+      <c r="E3" s="82">
+        <v>43898</v>
+      </c>
+      <c r="F3" s="81">
+        <v>2.4970313000000002</v>
+      </c>
+      <c r="G3" s="81">
+        <v>4.5575650999999997</v>
+      </c>
+      <c r="H3" s="81">
+        <v>7.5803374999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="80">
+        <v>3</v>
+      </c>
+      <c r="B4" s="81">
+        <v>3</v>
+      </c>
+      <c r="C4" s="81">
+        <v>4</v>
+      </c>
+      <c r="D4" s="81">
+        <v>10</v>
+      </c>
+      <c r="E4" s="82">
+        <v>43899</v>
+      </c>
+      <c r="F4" s="81">
+        <v>1.9911034999999999</v>
+      </c>
+      <c r="G4" s="81">
+        <v>3.6279284000000001</v>
+      </c>
+      <c r="H4" s="81">
+        <v>6.3730336999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="80">
+        <v>4</v>
+      </c>
+      <c r="B5" s="81">
+        <v>4</v>
+      </c>
+      <c r="C5" s="81">
+        <v>5</v>
+      </c>
+      <c r="D5" s="81">
+        <v>11</v>
+      </c>
+      <c r="E5" s="82">
+        <v>43900</v>
+      </c>
+      <c r="F5" s="81">
+        <v>1.3991917</v>
+      </c>
+      <c r="G5" s="81">
+        <v>2.4822225000000002</v>
+      </c>
+      <c r="H5" s="81">
+        <v>4.0067773000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="80">
+        <v>5</v>
+      </c>
+      <c r="B6" s="81">
+        <v>5</v>
+      </c>
+      <c r="C6" s="81">
+        <v>6</v>
+      </c>
+      <c r="D6" s="81">
+        <v>12</v>
+      </c>
+      <c r="E6" s="82">
+        <v>43901</v>
+      </c>
+      <c r="F6" s="81">
+        <v>1.7035279999999999</v>
+      </c>
+      <c r="G6" s="81">
+        <v>2.6511111999999999</v>
+      </c>
+      <c r="H6" s="81">
+        <v>3.9028646999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="80">
+        <v>6</v>
+      </c>
+      <c r="B7" s="81">
+        <v>6</v>
+      </c>
+      <c r="C7" s="81">
+        <v>7</v>
+      </c>
+      <c r="D7" s="81">
+        <v>13</v>
+      </c>
+      <c r="E7" s="82">
+        <v>43902</v>
+      </c>
+      <c r="F7" s="81">
+        <v>1.8403609000000001</v>
+      </c>
+      <c r="G7" s="81">
+        <v>2.6700553</v>
+      </c>
+      <c r="H7" s="81">
+        <v>3.7164459000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="80">
+        <v>7</v>
+      </c>
+      <c r="B8" s="81">
+        <v>7</v>
+      </c>
+      <c r="C8" s="81">
+        <v>8</v>
+      </c>
+      <c r="D8" s="81">
+        <v>14</v>
+      </c>
+      <c r="E8" s="82">
+        <v>43903</v>
+      </c>
+      <c r="F8" s="81">
+        <v>2.1698249000000001</v>
+      </c>
+      <c r="G8" s="81">
+        <v>3.0318816000000002</v>
+      </c>
+      <c r="H8" s="81">
+        <v>4.2048323999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="80">
+        <v>8</v>
+      </c>
+      <c r="B9" s="81">
+        <v>8</v>
+      </c>
+      <c r="C9" s="81">
+        <v>9</v>
+      </c>
+      <c r="D9" s="81">
+        <v>15</v>
+      </c>
+      <c r="E9" s="82">
+        <v>43904</v>
+      </c>
+      <c r="F9" s="81">
+        <v>2.4475094999999998</v>
+      </c>
+      <c r="G9" s="81">
+        <v>3.4721921</v>
+      </c>
+      <c r="H9" s="81">
+        <v>4.6868169000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="80">
+        <v>9</v>
+      </c>
+      <c r="B10" s="81">
+        <v>9</v>
+      </c>
+      <c r="C10" s="81">
+        <v>10</v>
+      </c>
+      <c r="D10" s="81">
+        <v>16</v>
+      </c>
+      <c r="E10" s="82">
+        <v>43905</v>
+      </c>
+      <c r="F10" s="81">
+        <v>2.4756507999999999</v>
+      </c>
+      <c r="G10" s="81">
+        <v>3.7262455000000001</v>
+      </c>
+      <c r="H10" s="81">
+        <v>5.2387192999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="80">
+        <v>10</v>
+      </c>
+      <c r="B11" s="81">
+        <v>10</v>
+      </c>
+      <c r="C11" s="81">
+        <v>11</v>
+      </c>
+      <c r="D11" s="81">
+        <v>17</v>
+      </c>
+      <c r="E11" s="82">
+        <v>43906</v>
+      </c>
+      <c r="F11" s="81">
+        <v>2.3438488999999998</v>
+      </c>
+      <c r="G11" s="81">
+        <v>3.5899033999999999</v>
+      </c>
+      <c r="H11" s="81">
+        <v>5.2265109000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="80">
+        <v>11</v>
+      </c>
+      <c r="B12" s="81">
+        <v>11</v>
+      </c>
+      <c r="C12" s="81">
+        <v>12</v>
+      </c>
+      <c r="D12" s="81">
+        <v>18</v>
+      </c>
+      <c r="E12" s="82">
+        <v>43907</v>
+      </c>
+      <c r="F12" s="81">
+        <v>2.3070309999999998</v>
+      </c>
+      <c r="G12" s="81">
+        <v>3.5355930999999998</v>
+      </c>
+      <c r="H12" s="81">
+        <v>5.2437392000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="80">
+        <v>12</v>
+      </c>
+      <c r="B13" s="81">
+        <v>12</v>
+      </c>
+      <c r="C13" s="81">
+        <v>13</v>
+      </c>
+      <c r="D13" s="81">
+        <v>19</v>
+      </c>
+      <c r="E13" s="82">
+        <v>43908</v>
+      </c>
+      <c r="F13" s="81">
+        <v>2.3661846999999998</v>
+      </c>
+      <c r="G13" s="81">
+        <v>3.5813085999999998</v>
+      </c>
+      <c r="H13" s="81">
+        <v>5.3128393999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="80">
+        <v>13</v>
+      </c>
+      <c r="B14" s="81">
+        <v>13</v>
+      </c>
+      <c r="C14" s="81">
+        <v>14</v>
+      </c>
+      <c r="D14" s="81">
+        <v>20</v>
+      </c>
+      <c r="E14" s="82">
+        <v>43909</v>
+      </c>
+      <c r="F14" s="81">
+        <v>2.0448080000000002</v>
+      </c>
+      <c r="G14" s="81">
+        <v>3.1175828000000001</v>
+      </c>
+      <c r="H14" s="81">
+        <v>4.4764622999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="80">
+        <v>14</v>
+      </c>
+      <c r="B15" s="81">
+        <v>14</v>
+      </c>
+      <c r="C15" s="81">
+        <v>15</v>
+      </c>
+      <c r="D15" s="81">
+        <v>21</v>
+      </c>
+      <c r="E15" s="82">
+        <v>43910</v>
+      </c>
+      <c r="F15" s="81">
+        <v>1.9831185</v>
+      </c>
+      <c r="G15" s="81">
+        <v>2.9465431999999998</v>
+      </c>
+      <c r="H15" s="81">
+        <v>4.1124298000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="80">
+        <v>15</v>
+      </c>
+      <c r="B16" s="81">
+        <v>15</v>
+      </c>
+      <c r="C16" s="81">
+        <v>16</v>
+      </c>
+      <c r="D16" s="81">
+        <v>22</v>
+      </c>
+      <c r="E16" s="82">
+        <v>43911</v>
+      </c>
+      <c r="F16" s="81">
+        <v>1.8750914000000001</v>
+      </c>
+      <c r="G16" s="81">
+        <v>2.6882495</v>
+      </c>
+      <c r="H16" s="81">
+        <v>3.6615940999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="80">
+        <v>16</v>
+      </c>
+      <c r="B17" s="81">
+        <v>16</v>
+      </c>
+      <c r="C17" s="81">
+        <v>17</v>
+      </c>
+      <c r="D17" s="81">
+        <v>23</v>
+      </c>
+      <c r="E17" s="82">
+        <v>43912</v>
+      </c>
+      <c r="F17" s="81">
+        <v>1.7759590999999999</v>
+      </c>
+      <c r="G17" s="81">
+        <v>2.4820058</v>
+      </c>
+      <c r="H17" s="81">
+        <v>3.3150993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="80">
+        <v>17</v>
+      </c>
+      <c r="B18" s="81">
+        <v>17</v>
+      </c>
+      <c r="C18" s="81">
+        <v>18</v>
+      </c>
+      <c r="D18" s="81">
+        <v>24</v>
+      </c>
+      <c r="E18" s="82">
+        <v>43913</v>
+      </c>
+      <c r="F18" s="81">
+        <v>1.8852378000000001</v>
+      </c>
+      <c r="G18" s="81">
+        <v>2.5231246000000001</v>
+      </c>
+      <c r="H18" s="81">
+        <v>3.2685393</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="80">
+        <v>18</v>
+      </c>
+      <c r="B19" s="81">
+        <v>18</v>
+      </c>
+      <c r="C19" s="81">
+        <v>19</v>
+      </c>
+      <c r="D19" s="81">
+        <v>25</v>
+      </c>
+      <c r="E19" s="82">
+        <v>43914</v>
+      </c>
+      <c r="F19" s="81">
+        <v>1.7131529999999999</v>
+      </c>
+      <c r="G19" s="81">
+        <v>2.2059031999999998</v>
+      </c>
+      <c r="H19" s="81">
+        <v>2.8414012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="80">
+        <v>19</v>
+      </c>
+      <c r="B20" s="81">
+        <v>19</v>
+      </c>
+      <c r="C20" s="81">
+        <v>20</v>
+      </c>
+      <c r="D20" s="81">
+        <v>26</v>
+      </c>
+      <c r="E20" s="82">
+        <v>43915</v>
+      </c>
+      <c r="F20" s="81">
+        <v>1.7158883</v>
+      </c>
+      <c r="G20" s="81">
+        <v>2.1883968</v>
+      </c>
+      <c r="H20" s="81">
+        <v>2.7827689000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="80">
+        <v>20</v>
+      </c>
+      <c r="B21" s="81">
+        <v>20</v>
+      </c>
+      <c r="C21" s="81">
+        <v>21</v>
+      </c>
+      <c r="D21" s="81">
+        <v>27</v>
+      </c>
+      <c r="E21" s="82">
+        <v>43916</v>
+      </c>
+      <c r="F21" s="81">
+        <v>1.6536164</v>
+      </c>
+      <c r="G21" s="81">
+        <v>2.0993075999999999</v>
+      </c>
+      <c r="H21" s="81">
+        <v>2.6135299999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="80">
+        <v>21</v>
+      </c>
+      <c r="B22" s="81">
+        <v>21</v>
+      </c>
+      <c r="C22" s="81">
+        <v>22</v>
+      </c>
+      <c r="D22" s="81">
+        <v>28</v>
+      </c>
+      <c r="E22" s="82">
+        <v>43917</v>
+      </c>
+      <c r="F22" s="81">
+        <v>1.6336723</v>
+      </c>
+      <c r="G22" s="81">
+        <v>2.0469126000000002</v>
+      </c>
+      <c r="H22" s="81">
+        <v>2.5343091000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="80">
+        <v>22</v>
+      </c>
+      <c r="B23" s="81">
+        <v>22</v>
+      </c>
+      <c r="C23" s="81">
+        <v>23</v>
+      </c>
+      <c r="D23" s="81">
+        <v>29</v>
+      </c>
+      <c r="E23" s="82">
+        <v>43918</v>
+      </c>
+      <c r="F23" s="81">
+        <v>1.6575645000000001</v>
+      </c>
+      <c r="G23" s="81">
+        <v>2.0533725999999999</v>
+      </c>
+      <c r="H23" s="81">
+        <v>2.4931226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="80">
+        <v>23</v>
+      </c>
+      <c r="B24" s="81">
+        <v>23</v>
+      </c>
+      <c r="C24" s="81">
+        <v>24</v>
+      </c>
+      <c r="D24" s="81">
+        <v>30</v>
+      </c>
+      <c r="E24" s="82">
+        <v>43919</v>
+      </c>
+      <c r="F24" s="81">
+        <v>1.5725522999999999</v>
+      </c>
+      <c r="G24" s="81">
+        <v>1.9445281999999999</v>
+      </c>
+      <c r="H24" s="81">
+        <v>2.3543154999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="80">
+        <v>24</v>
+      </c>
+      <c r="B25" s="81">
+        <v>24</v>
+      </c>
+      <c r="C25" s="81">
+        <v>25</v>
+      </c>
+      <c r="D25" s="81">
+        <v>31</v>
+      </c>
+      <c r="E25" s="82">
+        <v>43920</v>
+      </c>
+      <c r="F25" s="81">
+        <v>1.3212421999999999</v>
+      </c>
+      <c r="G25" s="81">
+        <v>1.6383487000000001</v>
+      </c>
+      <c r="H25" s="81">
+        <v>1.9662899</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="80">
+        <v>25</v>
+      </c>
+      <c r="B26" s="81">
+        <v>25</v>
+      </c>
+      <c r="C26" s="81">
+        <v>26</v>
+      </c>
+      <c r="D26" s="81">
+        <v>32</v>
+      </c>
+      <c r="E26" s="82">
+        <v>43921</v>
+      </c>
+      <c r="F26" s="81">
+        <v>1.4296993</v>
+      </c>
+      <c r="G26" s="81">
+        <v>1.6591563</v>
+      </c>
+      <c r="H26" s="81">
+        <v>1.9431045</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="80">
+        <v>26</v>
+      </c>
+      <c r="B27" s="81">
+        <v>26</v>
+      </c>
+      <c r="C27" s="81">
+        <v>27</v>
+      </c>
+      <c r="D27" s="81">
+        <v>33</v>
+      </c>
+      <c r="E27" s="82">
+        <v>43922</v>
+      </c>
+      <c r="F27" s="81">
+        <v>1.3263039000000001</v>
+      </c>
+      <c r="G27" s="81">
+        <v>1.5217232000000001</v>
+      </c>
+      <c r="H27" s="81">
+        <v>1.7170349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="80">
+        <v>27</v>
+      </c>
+      <c r="B28" s="81">
+        <v>27</v>
+      </c>
+      <c r="C28" s="81">
+        <v>28</v>
+      </c>
+      <c r="D28" s="81">
+        <v>34</v>
+      </c>
+      <c r="E28" s="82">
+        <v>43923</v>
+      </c>
+      <c r="F28" s="81">
+        <v>1.2574429</v>
+      </c>
+      <c r="G28" s="81">
+        <v>1.4222538</v>
+      </c>
+      <c r="H28" s="81">
+        <v>1.6241386</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="80">
+        <v>28</v>
+      </c>
+      <c r="B29" s="81">
+        <v>28</v>
+      </c>
+      <c r="C29" s="81">
+        <v>29</v>
+      </c>
+      <c r="D29" s="81">
+        <v>35</v>
+      </c>
+      <c r="E29" s="82">
+        <v>43924</v>
+      </c>
+      <c r="F29" s="81">
+        <v>1.1997180999999999</v>
+      </c>
+      <c r="G29" s="81">
+        <v>1.3256334999999999</v>
+      </c>
+      <c r="H29" s="81">
+        <v>1.4603683999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="80">
+        <v>29</v>
+      </c>
+      <c r="B30" s="81">
+        <v>29</v>
+      </c>
+      <c r="C30" s="81">
+        <v>30</v>
+      </c>
+      <c r="D30" s="81">
+        <v>36</v>
+      </c>
+      <c r="E30" s="82">
+        <v>43925</v>
+      </c>
+      <c r="F30" s="81">
+        <v>1.0724990000000001</v>
+      </c>
+      <c r="G30" s="81">
+        <v>1.1690111999999999</v>
+      </c>
+      <c r="H30" s="81">
+        <v>1.2776468000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="80">
+        <v>30</v>
+      </c>
+      <c r="B31" s="81">
+        <v>30</v>
+      </c>
+      <c r="C31" s="81">
+        <v>31</v>
+      </c>
+      <c r="D31" s="81">
+        <v>37</v>
+      </c>
+      <c r="E31" s="82">
+        <v>43926</v>
+      </c>
+      <c r="F31" s="81">
+        <v>1.0326747000000001</v>
+      </c>
+      <c r="G31" s="81">
+        <v>1.1037496</v>
+      </c>
+      <c r="H31" s="81">
+        <v>1.172982</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="80">
+        <v>31</v>
+      </c>
+      <c r="B32" s="81">
+        <v>31</v>
+      </c>
+      <c r="C32" s="81">
+        <v>32</v>
+      </c>
+      <c r="D32" s="81">
+        <v>38</v>
+      </c>
+      <c r="E32" s="82">
+        <v>43927</v>
+      </c>
+      <c r="F32" s="81">
+        <v>1.0119007</v>
+      </c>
+      <c r="G32" s="81">
+        <v>1.0637365000000001</v>
+      </c>
+      <c r="H32" s="81">
+        <v>1.1190317000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="80">
+        <v>32</v>
+      </c>
+      <c r="B33" s="81">
+        <v>32</v>
+      </c>
+      <c r="C33" s="81">
+        <v>33</v>
+      </c>
+      <c r="D33" s="81">
+        <v>39</v>
+      </c>
+      <c r="E33" s="82">
+        <v>43928</v>
+      </c>
+      <c r="F33" s="81">
+        <v>0.93583559999999999</v>
+      </c>
+      <c r="G33" s="81">
+        <v>0.97975599999999996</v>
+      </c>
+      <c r="H33" s="81">
+        <v>1.0250173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="80">
+        <v>33</v>
+      </c>
+      <c r="B34" s="81">
+        <v>33</v>
+      </c>
+      <c r="C34" s="81">
+        <v>34</v>
+      </c>
+      <c r="D34" s="81">
+        <v>40</v>
+      </c>
+      <c r="E34" s="82">
+        <v>43929</v>
+      </c>
+      <c r="F34" s="81">
+        <v>0.91532150000000001</v>
+      </c>
+      <c r="G34" s="81">
+        <v>0.95088930000000005</v>
+      </c>
+      <c r="H34" s="81">
+        <v>0.98526879999999994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="80">
+        <v>34</v>
+      </c>
+      <c r="B35" s="81">
+        <v>34</v>
+      </c>
+      <c r="C35" s="81">
+        <v>35</v>
+      </c>
+      <c r="D35" s="81">
+        <v>41</v>
+      </c>
+      <c r="E35" s="82">
+        <v>43930</v>
+      </c>
+      <c r="F35" s="81">
+        <v>0.91833949999999998</v>
+      </c>
+      <c r="G35" s="81">
+        <v>0.95762230000000004</v>
+      </c>
+      <c r="H35" s="81">
+        <v>0.99853990000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="80">
+        <v>35</v>
+      </c>
+      <c r="B36" s="81">
+        <v>35</v>
+      </c>
+      <c r="C36" s="81">
+        <v>36</v>
+      </c>
+      <c r="D36" s="81">
+        <v>42</v>
+      </c>
+      <c r="E36" s="82">
+        <v>43931</v>
+      </c>
+      <c r="F36" s="81">
+        <v>1.0560844</v>
+      </c>
+      <c r="G36" s="81">
+        <v>1.0972601</v>
+      </c>
+      <c r="H36" s="81">
+        <v>1.1371256000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="80">
+        <v>36</v>
+      </c>
+      <c r="B37" s="81">
+        <v>36</v>
+      </c>
+      <c r="C37" s="81">
+        <v>37</v>
+      </c>
+      <c r="D37" s="81">
+        <v>43</v>
+      </c>
+      <c r="E37" s="82">
+        <v>43932</v>
+      </c>
+      <c r="F37" s="81">
+        <v>1.0380206000000001</v>
+      </c>
+      <c r="G37" s="81">
+        <v>1.0709795</v>
+      </c>
+      <c r="H37" s="81">
+        <v>1.1023537999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="80">
+        <v>37</v>
+      </c>
+      <c r="B38" s="81">
+        <v>37</v>
+      </c>
+      <c r="C38" s="81">
+        <v>38</v>
+      </c>
+      <c r="D38" s="81">
+        <v>44</v>
+      </c>
+      <c r="E38" s="82">
+        <v>43933</v>
+      </c>
+      <c r="F38" s="81">
+        <v>0.99717699999999998</v>
+      </c>
+      <c r="G38" s="81">
+        <v>1.0259369</v>
+      </c>
+      <c r="H38" s="81">
+        <v>1.0548515000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="80">
+        <v>38</v>
+      </c>
+      <c r="B39" s="81">
+        <v>38</v>
+      </c>
+      <c r="C39" s="81">
+        <v>39</v>
+      </c>
+      <c r="D39" s="81">
+        <v>45</v>
+      </c>
+      <c r="E39" s="82">
+        <v>43934</v>
+      </c>
+      <c r="F39" s="81">
+        <v>0.96804190000000001</v>
+      </c>
+      <c r="G39" s="81">
+        <v>0.99578679999999997</v>
+      </c>
+      <c r="H39" s="81">
+        <v>1.0256677000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="80">
+        <v>39</v>
+      </c>
+      <c r="B40" s="81">
+        <v>39</v>
+      </c>
+      <c r="C40" s="81">
+        <v>40</v>
+      </c>
+      <c r="D40" s="81">
+        <v>46</v>
+      </c>
+      <c r="E40" s="82">
+        <v>43935</v>
+      </c>
+      <c r="F40" s="81">
+        <v>0.92683459999999995</v>
+      </c>
+      <c r="G40" s="81">
+        <v>0.95274420000000004</v>
+      </c>
+      <c r="H40" s="81">
+        <v>0.97965939999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="80">
+        <v>40</v>
+      </c>
+      <c r="B41" s="81">
+        <v>40</v>
+      </c>
+      <c r="C41" s="81">
+        <v>41</v>
+      </c>
+      <c r="D41" s="81">
+        <v>47</v>
+      </c>
+      <c r="E41" s="82">
+        <v>43936</v>
+      </c>
+      <c r="F41" s="81">
+        <v>0.91836329999999999</v>
+      </c>
+      <c r="G41" s="81">
+        <v>0.94559159999999998</v>
+      </c>
+      <c r="H41" s="81">
+        <v>0.97312010000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="80">
+        <v>41</v>
+      </c>
+      <c r="B42" s="81">
+        <v>41</v>
+      </c>
+      <c r="C42" s="81">
+        <v>42</v>
+      </c>
+      <c r="D42" s="81">
+        <v>48</v>
+      </c>
+      <c r="E42" s="82">
+        <v>43937</v>
+      </c>
+      <c r="F42" s="81">
+        <v>0.91095119999999996</v>
+      </c>
+      <c r="G42" s="81">
+        <v>0.9411197</v>
+      </c>
+      <c r="H42" s="81">
+        <v>0.97052110000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="80">
+        <v>42</v>
+      </c>
+      <c r="B43" s="81">
+        <v>42</v>
+      </c>
+      <c r="C43" s="81">
+        <v>43</v>
+      </c>
+      <c r="D43" s="81">
+        <v>49</v>
+      </c>
+      <c r="E43" s="82">
+        <v>43938</v>
+      </c>
+      <c r="F43" s="81">
+        <v>0.66708000000000001</v>
+      </c>
+      <c r="G43" s="81">
+        <v>0.69101469999999998</v>
+      </c>
+      <c r="H43" s="81">
+        <v>0.71611499999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="80">
+        <v>43</v>
+      </c>
+      <c r="B44" s="81">
+        <v>43</v>
+      </c>
+      <c r="C44" s="81">
+        <v>44</v>
+      </c>
+      <c r="D44" s="81">
+        <v>50</v>
+      </c>
+      <c r="E44" s="82">
+        <v>43939</v>
+      </c>
+      <c r="F44" s="81">
+        <v>0.70143809999999995</v>
+      </c>
+      <c r="G44" s="81">
+        <v>0.74398549999999997</v>
+      </c>
+      <c r="H44" s="81">
+        <v>0.78733940000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="80">
+        <v>44</v>
+      </c>
+      <c r="B45" s="81">
+        <v>44</v>
+      </c>
+      <c r="C45" s="81">
+        <v>45</v>
+      </c>
+      <c r="D45" s="81">
+        <v>51</v>
+      </c>
+      <c r="E45" s="82">
+        <v>43940</v>
+      </c>
+      <c r="F45" s="81">
+        <v>0.71117240000000004</v>
+      </c>
+      <c r="G45" s="81">
+        <v>0.7679937</v>
+      </c>
+      <c r="H45" s="81">
+        <v>0.82864760000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="80">
+        <v>45</v>
+      </c>
+      <c r="B46" s="81">
+        <v>45</v>
+      </c>
+      <c r="C46" s="81">
+        <v>46</v>
+      </c>
+      <c r="D46" s="81">
+        <v>52</v>
+      </c>
+      <c r="E46" s="82">
+        <v>43941</v>
+      </c>
+      <c r="F46" s="81">
+        <v>0.80956640000000002</v>
+      </c>
+      <c r="G46" s="81">
+        <v>0.8809186</v>
+      </c>
+      <c r="H46" s="81">
+        <v>0.95172509999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="80">
+        <v>46</v>
+      </c>
+      <c r="B47" s="81">
+        <v>46</v>
+      </c>
+      <c r="C47" s="81">
+        <v>47</v>
+      </c>
+      <c r="D47" s="81">
+        <v>53</v>
+      </c>
+      <c r="E47" s="82">
+        <v>43942</v>
+      </c>
+      <c r="F47" s="81">
+        <v>0.86470939999999996</v>
+      </c>
+      <c r="G47" s="81">
+        <v>0.92096960000000005</v>
+      </c>
+      <c r="H47" s="81">
+        <v>0.980078</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="80">
+        <v>47</v>
+      </c>
+      <c r="B48" s="81">
+        <v>47</v>
+      </c>
+      <c r="C48" s="81">
+        <v>48</v>
+      </c>
+      <c r="D48" s="81">
+        <v>54</v>
+      </c>
+      <c r="E48" s="82">
+        <v>43943</v>
+      </c>
+      <c r="F48" s="81">
+        <v>0.89397680000000002</v>
+      </c>
+      <c r="G48" s="81">
+        <v>0.93808570000000002</v>
+      </c>
+      <c r="H48" s="81">
+        <v>0.98441749999999995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="80">
+        <v>48</v>
+      </c>
+      <c r="B49" s="81">
+        <v>48</v>
+      </c>
+      <c r="C49" s="81">
+        <v>49</v>
+      </c>
+      <c r="D49" s="81">
+        <v>55</v>
+      </c>
+      <c r="E49" s="82">
+        <v>43944</v>
+      </c>
+      <c r="F49" s="81">
+        <v>0.82808400000000004</v>
+      </c>
+      <c r="G49" s="81">
+        <v>0.86495029999999995</v>
+      </c>
+      <c r="H49" s="81">
+        <v>0.90245940000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="80">
+        <v>49</v>
+      </c>
+      <c r="B50" s="81">
+        <v>49</v>
+      </c>
+      <c r="C50" s="81">
+        <v>50</v>
+      </c>
+      <c r="D50" s="81">
+        <v>56</v>
+      </c>
+      <c r="E50" s="82">
+        <v>43945</v>
+      </c>
+      <c r="F50" s="81">
+        <v>0.91270410000000002</v>
+      </c>
+      <c r="G50" s="81">
+        <v>0.94871380000000005</v>
+      </c>
+      <c r="H50" s="81">
+        <v>0.98432549999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="80">
+        <v>50</v>
+      </c>
+      <c r="B51" s="81">
+        <v>50</v>
+      </c>
+      <c r="C51" s="81">
+        <v>51</v>
+      </c>
+      <c r="D51" s="81">
+        <v>57</v>
+      </c>
+      <c r="E51" s="82">
+        <v>43946</v>
+      </c>
+      <c r="F51" s="81">
+        <v>0.91306699999999996</v>
+      </c>
+      <c r="G51" s="81">
+        <v>0.95103040000000005</v>
+      </c>
+      <c r="H51" s="81">
+        <v>0.9886954</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="80">
+        <v>51</v>
+      </c>
+      <c r="B52" s="81">
+        <v>51</v>
+      </c>
+      <c r="C52" s="81">
+        <v>52</v>
+      </c>
+      <c r="D52" s="81">
+        <v>58</v>
+      </c>
+      <c r="E52" s="82">
+        <v>43947</v>
+      </c>
+      <c r="F52" s="81">
+        <v>0.91631839999999998</v>
+      </c>
+      <c r="G52" s="81">
+        <v>0.95044309999999999</v>
+      </c>
+      <c r="H52" s="81">
+        <v>0.98555000000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="80">
+        <v>52</v>
+      </c>
+      <c r="B53" s="81">
+        <v>52</v>
+      </c>
+      <c r="C53" s="81">
+        <v>53</v>
+      </c>
+      <c r="D53" s="81">
+        <v>59</v>
+      </c>
+      <c r="E53" s="82">
+        <v>43948</v>
+      </c>
+      <c r="F53" s="81">
+        <v>0.79988700000000001</v>
+      </c>
+      <c r="G53" s="81">
+        <v>0.83244569999999996</v>
+      </c>
+      <c r="H53" s="81">
+        <v>0.86312619999999995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="80">
+        <v>53</v>
+      </c>
+      <c r="B54" s="81">
+        <v>53</v>
+      </c>
+      <c r="C54" s="81">
+        <v>54</v>
+      </c>
+      <c r="D54" s="81">
+        <v>60</v>
+      </c>
+      <c r="E54" s="82">
+        <v>43949</v>
+      </c>
+      <c r="F54" s="81">
+        <v>0.7572217</v>
+      </c>
+      <c r="G54" s="81">
+        <v>0.7893635</v>
+      </c>
+      <c r="H54" s="81">
+        <v>0.81955529999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="80">
+        <v>54</v>
+      </c>
+      <c r="B55" s="81">
+        <v>54</v>
+      </c>
+      <c r="C55" s="81">
+        <v>55</v>
+      </c>
+      <c r="D55" s="81">
+        <v>61</v>
+      </c>
+      <c r="E55" s="82">
+        <v>43950</v>
+      </c>
+      <c r="F55" s="81">
+        <v>0.66395930000000003</v>
+      </c>
+      <c r="G55" s="81">
+        <v>0.701098</v>
+      </c>
+      <c r="H55" s="81">
+        <v>0.73717080000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="80">
+        <v>55</v>
+      </c>
+      <c r="B56" s="81">
+        <v>55</v>
+      </c>
+      <c r="C56" s="81">
+        <v>56</v>
+      </c>
+      <c r="D56" s="81">
+        <v>62</v>
+      </c>
+      <c r="E56" s="82">
+        <v>43951</v>
+      </c>
+      <c r="F56" s="81">
+        <v>0.73691680000000004</v>
+      </c>
+      <c r="G56" s="81">
+        <v>0.78967019999999999</v>
+      </c>
+      <c r="H56" s="81">
+        <v>0.84294069999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="80">
+        <v>56</v>
+      </c>
+      <c r="B57" s="81">
+        <v>56</v>
+      </c>
+      <c r="C57" s="81">
+        <v>57</v>
+      </c>
+      <c r="D57" s="81">
+        <v>63</v>
+      </c>
+      <c r="E57" s="82">
+        <v>43952</v>
+      </c>
+      <c r="F57" s="81">
+        <v>0.64215440000000001</v>
+      </c>
+      <c r="G57" s="81">
+        <v>0.69659260000000001</v>
+      </c>
+      <c r="H57" s="81">
+        <v>0.75700429999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="80">
+        <v>57</v>
+      </c>
+      <c r="B58" s="81">
+        <v>57</v>
+      </c>
+      <c r="C58" s="81">
+        <v>58</v>
+      </c>
+      <c r="D58" s="81">
+        <v>64</v>
+      </c>
+      <c r="E58" s="82">
+        <v>43953</v>
+      </c>
+      <c r="F58" s="81">
+        <v>0.53537029999999997</v>
+      </c>
+      <c r="G58" s="81">
+        <v>0.58620850000000002</v>
+      </c>
+      <c r="H58" s="81">
+        <v>0.64308869999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="80">
+        <v>58</v>
+      </c>
+      <c r="B59" s="81">
+        <v>58</v>
+      </c>
+      <c r="C59" s="81">
+        <v>59</v>
+      </c>
+      <c r="D59" s="81">
+        <v>65</v>
+      </c>
+      <c r="E59" s="82">
+        <v>43954</v>
+      </c>
+      <c r="F59" s="81">
+        <v>0.45056980000000002</v>
+      </c>
+      <c r="G59" s="81">
+        <v>0.49946950000000001</v>
+      </c>
+      <c r="H59" s="81">
+        <v>0.55053730000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="80">
+        <v>59</v>
+      </c>
+      <c r="B60" s="81">
+        <v>59</v>
+      </c>
+      <c r="C60" s="81">
+        <v>60</v>
+      </c>
+      <c r="D60" s="81">
+        <v>66</v>
+      </c>
+      <c r="E60" s="82">
+        <v>43955</v>
+      </c>
+      <c r="F60" s="81">
+        <v>0.51504490000000003</v>
+      </c>
+      <c r="G60" s="81">
+        <v>0.58323009999999997</v>
+      </c>
+      <c r="H60" s="81">
+        <v>0.66328390000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="80">
+        <v>60</v>
+      </c>
+      <c r="B61" s="81">
+        <v>60</v>
+      </c>
+      <c r="C61" s="81">
+        <v>61</v>
+      </c>
+      <c r="D61" s="81">
+        <v>67</v>
+      </c>
+      <c r="E61" s="82">
+        <v>43956</v>
+      </c>
+      <c r="F61" s="81">
+        <v>0.52366630000000003</v>
+      </c>
+      <c r="G61" s="81">
+        <v>0.6038829</v>
+      </c>
+      <c r="H61" s="81">
+        <v>0.6898128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="80">
+        <v>61</v>
+      </c>
+      <c r="B62" s="81">
+        <v>61</v>
+      </c>
+      <c r="C62" s="88">
+        <v>62</v>
+      </c>
+      <c r="D62" s="88">
+        <v>68</v>
+      </c>
+      <c r="E62" s="89">
+        <v>43957</v>
+      </c>
+      <c r="F62" s="88">
+        <v>0.79458090000000003</v>
+      </c>
+      <c r="G62" s="88">
+        <v>0.88571489999999997</v>
+      </c>
+      <c r="H62" s="88">
+        <v>0.97248590000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="80">
+        <v>62</v>
+      </c>
+      <c r="B63" s="88">
+        <v>62</v>
+      </c>
+      <c r="C63" s="88">
+        <v>63</v>
+      </c>
+      <c r="D63" s="88">
+        <v>69</v>
+      </c>
+      <c r="E63" s="89">
+        <v>43958</v>
+      </c>
+      <c r="F63" s="88">
+        <v>0.93566389999999999</v>
+      </c>
+      <c r="G63" s="88">
+        <v>1.0232014</v>
+      </c>
+      <c r="H63" s="88">
+        <v>1.1081156999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="80">
+        <v>63</v>
+      </c>
+      <c r="B64" s="88">
+        <v>63</v>
+      </c>
+      <c r="C64" s="88">
+        <v>64</v>
+      </c>
+      <c r="D64" s="88">
+        <v>70</v>
+      </c>
+      <c r="E64" s="89">
+        <v>43959</v>
+      </c>
+      <c r="F64" s="88">
+        <v>1.1061658000000001</v>
+      </c>
+      <c r="G64" s="88">
+        <v>1.1806227</v>
+      </c>
+      <c r="H64" s="88">
+        <v>1.2681199000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="80">
+        <v>64</v>
+      </c>
+      <c r="B65" s="88">
+        <v>64</v>
+      </c>
+      <c r="C65" s="88">
+        <v>65</v>
+      </c>
+      <c r="D65" s="88">
+        <v>71</v>
+      </c>
+      <c r="E65" s="89">
+        <v>43960</v>
+      </c>
+      <c r="F65" s="88">
+        <v>1.1381549</v>
+      </c>
+      <c r="G65" s="88">
+        <v>1.0543049</v>
+      </c>
+      <c r="H65" s="88">
+        <v>1.2259047000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="80">
+        <v>65</v>
+      </c>
+      <c r="B66" s="88">
+        <v>65</v>
+      </c>
+      <c r="C66" s="88">
+        <v>66</v>
+      </c>
+      <c r="D66" s="88">
+        <v>72</v>
+      </c>
+      <c r="E66" s="89">
+        <v>43961</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B72F08-E80D-2442-A1A2-BBF08349DA6E}">
   <dimension ref="B1:Y19"/>
   <sheetViews>
@@ -53325,7 +55143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB628047-153B-9E44-945F-F4060346904A}">
   <dimension ref="A1:G307"/>
   <sheetViews>
@@ -53344,17 +55162,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="103" t="s">
+      <c r="B1" s="104"/>
+      <c r="C1" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
     </row>
     <row r="2" spans="1:7" ht="20" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -55222,19 +57040,19 @@
       </c>
       <c r="C71" s="38">
         <f>'DGS - EKL &amp; VOST'!C77</f>
-        <v>0</v>
+        <v>27406</v>
       </c>
       <c r="D71" s="7">
         <f>ROUND(C71/'BEAR PT - EKL'!$T$6,0)</f>
-        <v>0</v>
+        <v>9322</v>
       </c>
       <c r="E71" s="7">
         <f>ROUND(C71/'BEAR PT - EKL'!$T$8,0)</f>
-        <v>0</v>
+        <v>45677</v>
       </c>
       <c r="F71" s="7">
         <f>ROUND(C71/'BEAR PT - EKL'!$T$9,0)</f>
-        <v>0</v>
+        <v>85644</v>
       </c>
       <c r="G71" s="7"/>
     </row>
@@ -61146,1637 +62964,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9430E89-8C4A-9848-8F9C-310318091DF7}">
-  <dimension ref="A1:H62"/>
-  <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="4" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="80">
-        <v>1</v>
-      </c>
-      <c r="B2" s="81">
-        <v>1</v>
-      </c>
-      <c r="C2" s="81">
-        <v>2</v>
-      </c>
-      <c r="D2" s="81">
-        <v>8</v>
-      </c>
-      <c r="E2" s="82">
-        <v>43897</v>
-      </c>
-      <c r="F2" s="81">
-        <v>5.0021531000000001</v>
-      </c>
-      <c r="G2" s="81">
-        <v>2.1764043000000002</v>
-      </c>
-      <c r="H2" s="81">
-        <v>9.4025379999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="80">
-        <v>2</v>
-      </c>
-      <c r="B3" s="81">
-        <v>2</v>
-      </c>
-      <c r="C3" s="81">
-        <v>3</v>
-      </c>
-      <c r="D3" s="81">
-        <v>9</v>
-      </c>
-      <c r="E3" s="82">
-        <v>43898</v>
-      </c>
-      <c r="F3" s="81">
-        <v>4.5575650999999997</v>
-      </c>
-      <c r="G3" s="81">
-        <v>2.4970313000000002</v>
-      </c>
-      <c r="H3" s="81">
-        <v>7.5803374999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="80">
-        <v>3</v>
-      </c>
-      <c r="B4" s="81">
-        <v>3</v>
-      </c>
-      <c r="C4" s="81">
-        <v>4</v>
-      </c>
-      <c r="D4" s="81">
-        <v>10</v>
-      </c>
-      <c r="E4" s="82">
-        <v>43899</v>
-      </c>
-      <c r="F4" s="81">
-        <v>3.6279284000000001</v>
-      </c>
-      <c r="G4" s="81">
-        <v>1.9911034999999999</v>
-      </c>
-      <c r="H4" s="81">
-        <v>6.3730336999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="80">
-        <v>4</v>
-      </c>
-      <c r="B5" s="81">
-        <v>4</v>
-      </c>
-      <c r="C5" s="81">
-        <v>5</v>
-      </c>
-      <c r="D5" s="81">
-        <v>11</v>
-      </c>
-      <c r="E5" s="82">
-        <v>43900</v>
-      </c>
-      <c r="F5" s="81">
-        <v>2.4822225000000002</v>
-      </c>
-      <c r="G5" s="81">
-        <v>1.3991917</v>
-      </c>
-      <c r="H5" s="81">
-        <v>4.0067773000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="80">
-        <v>5</v>
-      </c>
-      <c r="B6" s="81">
-        <v>5</v>
-      </c>
-      <c r="C6" s="81">
-        <v>6</v>
-      </c>
-      <c r="D6" s="81">
-        <v>12</v>
-      </c>
-      <c r="E6" s="82">
-        <v>43901</v>
-      </c>
-      <c r="F6" s="81">
-        <v>2.6511111999999999</v>
-      </c>
-      <c r="G6" s="81">
-        <v>1.7035279999999999</v>
-      </c>
-      <c r="H6" s="81">
-        <v>3.9028646999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="80">
-        <v>6</v>
-      </c>
-      <c r="B7" s="81">
-        <v>6</v>
-      </c>
-      <c r="C7" s="81">
-        <v>7</v>
-      </c>
-      <c r="D7" s="81">
-        <v>13</v>
-      </c>
-      <c r="E7" s="82">
-        <v>43902</v>
-      </c>
-      <c r="F7" s="81">
-        <v>2.6700553</v>
-      </c>
-      <c r="G7" s="81">
-        <v>1.8403609000000001</v>
-      </c>
-      <c r="H7" s="81">
-        <v>3.7164459000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="80">
-        <v>7</v>
-      </c>
-      <c r="B8" s="81">
-        <v>7</v>
-      </c>
-      <c r="C8" s="81">
-        <v>8</v>
-      </c>
-      <c r="D8" s="81">
-        <v>14</v>
-      </c>
-      <c r="E8" s="82">
-        <v>43903</v>
-      </c>
-      <c r="F8" s="81">
-        <v>3.0318816000000002</v>
-      </c>
-      <c r="G8" s="81">
-        <v>2.1698249000000001</v>
-      </c>
-      <c r="H8" s="81">
-        <v>4.2048323999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="80">
-        <v>8</v>
-      </c>
-      <c r="B9" s="81">
-        <v>8</v>
-      </c>
-      <c r="C9" s="81">
-        <v>9</v>
-      </c>
-      <c r="D9" s="81">
-        <v>15</v>
-      </c>
-      <c r="E9" s="82">
-        <v>43904</v>
-      </c>
-      <c r="F9" s="81">
-        <v>3.4721921</v>
-      </c>
-      <c r="G9" s="81">
-        <v>2.4475094999999998</v>
-      </c>
-      <c r="H9" s="81">
-        <v>4.6868169000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="80">
-        <v>9</v>
-      </c>
-      <c r="B10" s="81">
-        <v>9</v>
-      </c>
-      <c r="C10" s="81">
-        <v>10</v>
-      </c>
-      <c r="D10" s="81">
-        <v>16</v>
-      </c>
-      <c r="E10" s="82">
-        <v>43905</v>
-      </c>
-      <c r="F10" s="81">
-        <v>3.7262455000000001</v>
-      </c>
-      <c r="G10" s="81">
-        <v>2.4756507999999999</v>
-      </c>
-      <c r="H10" s="81">
-        <v>5.2387192999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="80">
-        <v>10</v>
-      </c>
-      <c r="B11" s="81">
-        <v>10</v>
-      </c>
-      <c r="C11" s="81">
-        <v>11</v>
-      </c>
-      <c r="D11" s="81">
-        <v>17</v>
-      </c>
-      <c r="E11" s="82">
-        <v>43906</v>
-      </c>
-      <c r="F11" s="81">
-        <v>3.5899033999999999</v>
-      </c>
-      <c r="G11" s="81">
-        <v>2.3438488999999998</v>
-      </c>
-      <c r="H11" s="81">
-        <v>5.2265109000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="80">
-        <v>11</v>
-      </c>
-      <c r="B12" s="81">
-        <v>11</v>
-      </c>
-      <c r="C12" s="81">
-        <v>12</v>
-      </c>
-      <c r="D12" s="81">
-        <v>18</v>
-      </c>
-      <c r="E12" s="82">
-        <v>43907</v>
-      </c>
-      <c r="F12" s="81">
-        <v>3.5355930999999998</v>
-      </c>
-      <c r="G12" s="81">
-        <v>2.3070309999999998</v>
-      </c>
-      <c r="H12" s="81">
-        <v>5.2437392000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="80">
-        <v>12</v>
-      </c>
-      <c r="B13" s="81">
-        <v>12</v>
-      </c>
-      <c r="C13" s="81">
-        <v>13</v>
-      </c>
-      <c r="D13" s="81">
-        <v>19</v>
-      </c>
-      <c r="E13" s="82">
-        <v>43908</v>
-      </c>
-      <c r="F13" s="81">
-        <v>3.5813085999999998</v>
-      </c>
-      <c r="G13" s="81">
-        <v>2.3661846999999998</v>
-      </c>
-      <c r="H13" s="81">
-        <v>5.3128393999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="80">
-        <v>13</v>
-      </c>
-      <c r="B14" s="81">
-        <v>13</v>
-      </c>
-      <c r="C14" s="81">
-        <v>14</v>
-      </c>
-      <c r="D14" s="81">
-        <v>20</v>
-      </c>
-      <c r="E14" s="82">
-        <v>43909</v>
-      </c>
-      <c r="F14" s="81">
-        <v>3.1175828000000001</v>
-      </c>
-      <c r="G14" s="81">
-        <v>2.0448080000000002</v>
-      </c>
-      <c r="H14" s="81">
-        <v>4.4764622999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="80">
-        <v>14</v>
-      </c>
-      <c r="B15" s="81">
-        <v>14</v>
-      </c>
-      <c r="C15" s="81">
-        <v>15</v>
-      </c>
-      <c r="D15" s="81">
-        <v>21</v>
-      </c>
-      <c r="E15" s="82">
-        <v>43910</v>
-      </c>
-      <c r="F15" s="81">
-        <v>2.9465431999999998</v>
-      </c>
-      <c r="G15" s="81">
-        <v>1.9831185</v>
-      </c>
-      <c r="H15" s="81">
-        <v>4.1124298000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="80">
-        <v>15</v>
-      </c>
-      <c r="B16" s="81">
-        <v>15</v>
-      </c>
-      <c r="C16" s="81">
-        <v>16</v>
-      </c>
-      <c r="D16" s="81">
-        <v>22</v>
-      </c>
-      <c r="E16" s="82">
-        <v>43911</v>
-      </c>
-      <c r="F16" s="81">
-        <v>2.6882495</v>
-      </c>
-      <c r="G16" s="81">
-        <v>1.8750914000000001</v>
-      </c>
-      <c r="H16" s="81">
-        <v>3.6615940999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="80">
-        <v>16</v>
-      </c>
-      <c r="B17" s="81">
-        <v>16</v>
-      </c>
-      <c r="C17" s="81">
-        <v>17</v>
-      </c>
-      <c r="D17" s="81">
-        <v>23</v>
-      </c>
-      <c r="E17" s="82">
-        <v>43912</v>
-      </c>
-      <c r="F17" s="81">
-        <v>2.4820058</v>
-      </c>
-      <c r="G17" s="81">
-        <v>1.7759590999999999</v>
-      </c>
-      <c r="H17" s="81">
-        <v>3.3150993</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="80">
-        <v>17</v>
-      </c>
-      <c r="B18" s="81">
-        <v>17</v>
-      </c>
-      <c r="C18" s="81">
-        <v>18</v>
-      </c>
-      <c r="D18" s="81">
-        <v>24</v>
-      </c>
-      <c r="E18" s="82">
-        <v>43913</v>
-      </c>
-      <c r="F18" s="81">
-        <v>2.5231246000000001</v>
-      </c>
-      <c r="G18" s="81">
-        <v>1.8852378000000001</v>
-      </c>
-      <c r="H18" s="81">
-        <v>3.2685393</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="80">
-        <v>18</v>
-      </c>
-      <c r="B19" s="81">
-        <v>18</v>
-      </c>
-      <c r="C19" s="81">
-        <v>19</v>
-      </c>
-      <c r="D19" s="81">
-        <v>25</v>
-      </c>
-      <c r="E19" s="82">
-        <v>43914</v>
-      </c>
-      <c r="F19" s="81">
-        <v>2.2059031999999998</v>
-      </c>
-      <c r="G19" s="81">
-        <v>1.7131529999999999</v>
-      </c>
-      <c r="H19" s="81">
-        <v>2.8414012</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="80">
-        <v>19</v>
-      </c>
-      <c r="B20" s="81">
-        <v>19</v>
-      </c>
-      <c r="C20" s="81">
-        <v>20</v>
-      </c>
-      <c r="D20" s="81">
-        <v>26</v>
-      </c>
-      <c r="E20" s="82">
-        <v>43915</v>
-      </c>
-      <c r="F20" s="81">
-        <v>2.1883968</v>
-      </c>
-      <c r="G20" s="81">
-        <v>1.7158883</v>
-      </c>
-      <c r="H20" s="81">
-        <v>2.7827689000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="80">
-        <v>20</v>
-      </c>
-      <c r="B21" s="81">
-        <v>20</v>
-      </c>
-      <c r="C21" s="81">
-        <v>21</v>
-      </c>
-      <c r="D21" s="81">
-        <v>27</v>
-      </c>
-      <c r="E21" s="82">
-        <v>43916</v>
-      </c>
-      <c r="F21" s="81">
-        <v>2.0993075999999999</v>
-      </c>
-      <c r="G21" s="81">
-        <v>1.6536164</v>
-      </c>
-      <c r="H21" s="81">
-        <v>2.6135299999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="80">
-        <v>21</v>
-      </c>
-      <c r="B22" s="81">
-        <v>21</v>
-      </c>
-      <c r="C22" s="81">
-        <v>22</v>
-      </c>
-      <c r="D22" s="81">
-        <v>28</v>
-      </c>
-      <c r="E22" s="82">
-        <v>43917</v>
-      </c>
-      <c r="F22" s="81">
-        <v>2.0469126000000002</v>
-      </c>
-      <c r="G22" s="81">
-        <v>1.6336723</v>
-      </c>
-      <c r="H22" s="81">
-        <v>2.5343091000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="80">
-        <v>22</v>
-      </c>
-      <c r="B23" s="81">
-        <v>22</v>
-      </c>
-      <c r="C23" s="81">
-        <v>23</v>
-      </c>
-      <c r="D23" s="81">
-        <v>29</v>
-      </c>
-      <c r="E23" s="82">
-        <v>43918</v>
-      </c>
-      <c r="F23" s="81">
-        <v>2.0533725999999999</v>
-      </c>
-      <c r="G23" s="81">
-        <v>1.6575645000000001</v>
-      </c>
-      <c r="H23" s="81">
-        <v>2.4931226</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="80">
-        <v>23</v>
-      </c>
-      <c r="B24" s="81">
-        <v>23</v>
-      </c>
-      <c r="C24" s="81">
-        <v>24</v>
-      </c>
-      <c r="D24" s="81">
-        <v>30</v>
-      </c>
-      <c r="E24" s="82">
-        <v>43919</v>
-      </c>
-      <c r="F24" s="81">
-        <v>1.9445281999999999</v>
-      </c>
-      <c r="G24" s="81">
-        <v>1.5725522999999999</v>
-      </c>
-      <c r="H24" s="81">
-        <v>2.3543154999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="80">
-        <v>24</v>
-      </c>
-      <c r="B25" s="81">
-        <v>24</v>
-      </c>
-      <c r="C25" s="81">
-        <v>25</v>
-      </c>
-      <c r="D25" s="81">
-        <v>31</v>
-      </c>
-      <c r="E25" s="82">
-        <v>43920</v>
-      </c>
-      <c r="F25" s="81">
-        <v>1.6383487000000001</v>
-      </c>
-      <c r="G25" s="81">
-        <v>1.3212421999999999</v>
-      </c>
-      <c r="H25" s="81">
-        <v>1.9662899</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="80">
-        <v>25</v>
-      </c>
-      <c r="B26" s="81">
-        <v>25</v>
-      </c>
-      <c r="C26" s="81">
-        <v>26</v>
-      </c>
-      <c r="D26" s="81">
-        <v>32</v>
-      </c>
-      <c r="E26" s="82">
-        <v>43921</v>
-      </c>
-      <c r="F26" s="81">
-        <v>1.6591563</v>
-      </c>
-      <c r="G26" s="81">
-        <v>1.4296993</v>
-      </c>
-      <c r="H26" s="81">
-        <v>1.9431045</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="80">
-        <v>26</v>
-      </c>
-      <c r="B27" s="81">
-        <v>26</v>
-      </c>
-      <c r="C27" s="81">
-        <v>27</v>
-      </c>
-      <c r="D27" s="81">
-        <v>33</v>
-      </c>
-      <c r="E27" s="82">
-        <v>43922</v>
-      </c>
-      <c r="F27" s="81">
-        <v>1.5217232000000001</v>
-      </c>
-      <c r="G27" s="81">
-        <v>1.3263039000000001</v>
-      </c>
-      <c r="H27" s="81">
-        <v>1.7170349</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="80">
-        <v>27</v>
-      </c>
-      <c r="B28" s="81">
-        <v>27</v>
-      </c>
-      <c r="C28" s="81">
-        <v>28</v>
-      </c>
-      <c r="D28" s="81">
-        <v>34</v>
-      </c>
-      <c r="E28" s="82">
-        <v>43923</v>
-      </c>
-      <c r="F28" s="81">
-        <v>1.4222538</v>
-      </c>
-      <c r="G28" s="81">
-        <v>1.2574429</v>
-      </c>
-      <c r="H28" s="81">
-        <v>1.6241386</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="80">
-        <v>28</v>
-      </c>
-      <c r="B29" s="81">
-        <v>28</v>
-      </c>
-      <c r="C29" s="81">
-        <v>29</v>
-      </c>
-      <c r="D29" s="81">
-        <v>35</v>
-      </c>
-      <c r="E29" s="82">
-        <v>43924</v>
-      </c>
-      <c r="F29" s="81">
-        <v>1.3256334999999999</v>
-      </c>
-      <c r="G29" s="81">
-        <v>1.1997180999999999</v>
-      </c>
-      <c r="H29" s="81">
-        <v>1.4603683999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="80">
-        <v>29</v>
-      </c>
-      <c r="B30" s="81">
-        <v>29</v>
-      </c>
-      <c r="C30" s="81">
-        <v>30</v>
-      </c>
-      <c r="D30" s="81">
-        <v>36</v>
-      </c>
-      <c r="E30" s="82">
-        <v>43925</v>
-      </c>
-      <c r="F30" s="81">
-        <v>1.1690111999999999</v>
-      </c>
-      <c r="G30" s="81">
-        <v>1.0724990000000001</v>
-      </c>
-      <c r="H30" s="81">
-        <v>1.2776468000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="80">
-        <v>30</v>
-      </c>
-      <c r="B31" s="81">
-        <v>30</v>
-      </c>
-      <c r="C31" s="81">
-        <v>31</v>
-      </c>
-      <c r="D31" s="81">
-        <v>37</v>
-      </c>
-      <c r="E31" s="82">
-        <v>43926</v>
-      </c>
-      <c r="F31" s="81">
-        <v>1.1037496</v>
-      </c>
-      <c r="G31" s="81">
-        <v>1.0326747000000001</v>
-      </c>
-      <c r="H31" s="81">
-        <v>1.172982</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="80">
-        <v>31</v>
-      </c>
-      <c r="B32" s="81">
-        <v>31</v>
-      </c>
-      <c r="C32" s="81">
-        <v>32</v>
-      </c>
-      <c r="D32" s="81">
-        <v>38</v>
-      </c>
-      <c r="E32" s="82">
-        <v>43927</v>
-      </c>
-      <c r="F32" s="81">
-        <v>1.0637365000000001</v>
-      </c>
-      <c r="G32" s="81">
-        <v>1.0119007</v>
-      </c>
-      <c r="H32" s="81">
-        <v>1.1190317000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="80">
-        <v>32</v>
-      </c>
-      <c r="B33" s="81">
-        <v>32</v>
-      </c>
-      <c r="C33" s="81">
-        <v>33</v>
-      </c>
-      <c r="D33" s="81">
-        <v>39</v>
-      </c>
-      <c r="E33" s="82">
-        <v>43928</v>
-      </c>
-      <c r="F33" s="81">
-        <v>0.97975599999999996</v>
-      </c>
-      <c r="G33" s="81">
-        <v>0.93583559999999999</v>
-      </c>
-      <c r="H33" s="81">
-        <v>1.0250173</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="80">
-        <v>33</v>
-      </c>
-      <c r="B34" s="81">
-        <v>33</v>
-      </c>
-      <c r="C34" s="81">
-        <v>34</v>
-      </c>
-      <c r="D34" s="81">
-        <v>40</v>
-      </c>
-      <c r="E34" s="82">
-        <v>43929</v>
-      </c>
-      <c r="F34" s="81">
-        <v>0.95088930000000005</v>
-      </c>
-      <c r="G34" s="81">
-        <v>0.91532150000000001</v>
-      </c>
-      <c r="H34" s="81">
-        <v>0.98526879999999994</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="80">
-        <v>34</v>
-      </c>
-      <c r="B35" s="81">
-        <v>34</v>
-      </c>
-      <c r="C35" s="81">
-        <v>35</v>
-      </c>
-      <c r="D35" s="81">
-        <v>41</v>
-      </c>
-      <c r="E35" s="82">
-        <v>43930</v>
-      </c>
-      <c r="F35" s="81">
-        <v>0.95762230000000004</v>
-      </c>
-      <c r="G35" s="81">
-        <v>0.91833949999999998</v>
-      </c>
-      <c r="H35" s="81">
-        <v>0.99853990000000004</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="80">
-        <v>35</v>
-      </c>
-      <c r="B36" s="81">
-        <v>35</v>
-      </c>
-      <c r="C36" s="81">
-        <v>36</v>
-      </c>
-      <c r="D36" s="81">
-        <v>42</v>
-      </c>
-      <c r="E36" s="82">
-        <v>43931</v>
-      </c>
-      <c r="F36" s="81">
-        <v>1.0972601</v>
-      </c>
-      <c r="G36" s="81">
-        <v>1.0560844</v>
-      </c>
-      <c r="H36" s="81">
-        <v>1.1371256000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="80">
-        <v>36</v>
-      </c>
-      <c r="B37" s="81">
-        <v>36</v>
-      </c>
-      <c r="C37" s="81">
-        <v>37</v>
-      </c>
-      <c r="D37" s="81">
-        <v>43</v>
-      </c>
-      <c r="E37" s="82">
-        <v>43932</v>
-      </c>
-      <c r="F37" s="81">
-        <v>1.0709795</v>
-      </c>
-      <c r="G37" s="81">
-        <v>1.0380206000000001</v>
-      </c>
-      <c r="H37" s="81">
-        <v>1.1023537999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="80">
-        <v>37</v>
-      </c>
-      <c r="B38" s="81">
-        <v>37</v>
-      </c>
-      <c r="C38" s="81">
-        <v>38</v>
-      </c>
-      <c r="D38" s="81">
-        <v>44</v>
-      </c>
-      <c r="E38" s="82">
-        <v>43933</v>
-      </c>
-      <c r="F38" s="81">
-        <v>1.0259369</v>
-      </c>
-      <c r="G38" s="81">
-        <v>0.99717699999999998</v>
-      </c>
-      <c r="H38" s="81">
-        <v>1.0548515000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="80">
-        <v>38</v>
-      </c>
-      <c r="B39" s="81">
-        <v>38</v>
-      </c>
-      <c r="C39" s="81">
-        <v>39</v>
-      </c>
-      <c r="D39" s="81">
-        <v>45</v>
-      </c>
-      <c r="E39" s="82">
-        <v>43934</v>
-      </c>
-      <c r="F39" s="81">
-        <v>0.99578679999999997</v>
-      </c>
-      <c r="G39" s="81">
-        <v>0.96804190000000001</v>
-      </c>
-      <c r="H39" s="81">
-        <v>1.0256677000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="80">
-        <v>39</v>
-      </c>
-      <c r="B40" s="81">
-        <v>39</v>
-      </c>
-      <c r="C40" s="81">
-        <v>40</v>
-      </c>
-      <c r="D40" s="81">
-        <v>46</v>
-      </c>
-      <c r="E40" s="82">
-        <v>43935</v>
-      </c>
-      <c r="F40" s="81">
-        <v>0.95274420000000004</v>
-      </c>
-      <c r="G40" s="81">
-        <v>0.92683459999999995</v>
-      </c>
-      <c r="H40" s="81">
-        <v>0.97965939999999996</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="80">
-        <v>40</v>
-      </c>
-      <c r="B41" s="81">
-        <v>40</v>
-      </c>
-      <c r="C41" s="81">
-        <v>41</v>
-      </c>
-      <c r="D41" s="81">
-        <v>47</v>
-      </c>
-      <c r="E41" s="82">
-        <v>43936</v>
-      </c>
-      <c r="F41" s="81">
-        <v>0.94559159999999998</v>
-      </c>
-      <c r="G41" s="81">
-        <v>0.91836329999999999</v>
-      </c>
-      <c r="H41" s="81">
-        <v>0.97312010000000004</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="80">
-        <v>41</v>
-      </c>
-      <c r="B42" s="81">
-        <v>41</v>
-      </c>
-      <c r="C42" s="81">
-        <v>42</v>
-      </c>
-      <c r="D42" s="81">
-        <v>48</v>
-      </c>
-      <c r="E42" s="82">
-        <v>43937</v>
-      </c>
-      <c r="F42" s="81">
-        <v>0.9411197</v>
-      </c>
-      <c r="G42" s="81">
-        <v>0.91095119999999996</v>
-      </c>
-      <c r="H42" s="81">
-        <v>0.97052110000000003</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="80">
-        <v>42</v>
-      </c>
-      <c r="B43" s="81">
-        <v>42</v>
-      </c>
-      <c r="C43" s="81">
-        <v>43</v>
-      </c>
-      <c r="D43" s="81">
-        <v>49</v>
-      </c>
-      <c r="E43" s="82">
-        <v>43938</v>
-      </c>
-      <c r="F43" s="81">
-        <v>0.69101469999999998</v>
-      </c>
-      <c r="G43" s="81">
-        <v>0.66708000000000001</v>
-      </c>
-      <c r="H43" s="81">
-        <v>0.71611499999999995</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="80">
-        <v>43</v>
-      </c>
-      <c r="B44" s="81">
-        <v>43</v>
-      </c>
-      <c r="C44" s="81">
-        <v>44</v>
-      </c>
-      <c r="D44" s="81">
-        <v>50</v>
-      </c>
-      <c r="E44" s="82">
-        <v>43939</v>
-      </c>
-      <c r="F44" s="81">
-        <v>0.74398549999999997</v>
-      </c>
-      <c r="G44" s="81">
-        <v>0.70143809999999995</v>
-      </c>
-      <c r="H44" s="81">
-        <v>0.78733940000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="80">
-        <v>44</v>
-      </c>
-      <c r="B45" s="81">
-        <v>44</v>
-      </c>
-      <c r="C45" s="81">
-        <v>45</v>
-      </c>
-      <c r="D45" s="81">
-        <v>51</v>
-      </c>
-      <c r="E45" s="82">
-        <v>43940</v>
-      </c>
-      <c r="F45" s="81">
-        <v>0.7679937</v>
-      </c>
-      <c r="G45" s="81">
-        <v>0.71117240000000004</v>
-      </c>
-      <c r="H45" s="81">
-        <v>0.82864760000000004</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="80">
-        <v>45</v>
-      </c>
-      <c r="B46" s="81">
-        <v>45</v>
-      </c>
-      <c r="C46" s="81">
-        <v>46</v>
-      </c>
-      <c r="D46" s="81">
-        <v>52</v>
-      </c>
-      <c r="E46" s="82">
-        <v>43941</v>
-      </c>
-      <c r="F46" s="81">
-        <v>0.8809186</v>
-      </c>
-      <c r="G46" s="81">
-        <v>0.80956640000000002</v>
-      </c>
-      <c r="H46" s="81">
-        <v>0.95172509999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="80">
-        <v>46</v>
-      </c>
-      <c r="B47" s="81">
-        <v>46</v>
-      </c>
-      <c r="C47" s="81">
-        <v>47</v>
-      </c>
-      <c r="D47" s="81">
-        <v>53</v>
-      </c>
-      <c r="E47" s="82">
-        <v>43942</v>
-      </c>
-      <c r="F47" s="81">
-        <v>0.92096960000000005</v>
-      </c>
-      <c r="G47" s="81">
-        <v>0.86470939999999996</v>
-      </c>
-      <c r="H47" s="81">
-        <v>0.980078</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="80">
-        <v>47</v>
-      </c>
-      <c r="B48" s="81">
-        <v>47</v>
-      </c>
-      <c r="C48" s="81">
-        <v>48</v>
-      </c>
-      <c r="D48" s="81">
-        <v>54</v>
-      </c>
-      <c r="E48" s="82">
-        <v>43943</v>
-      </c>
-      <c r="F48" s="81">
-        <v>0.93808570000000002</v>
-      </c>
-      <c r="G48" s="81">
-        <v>0.89397680000000002</v>
-      </c>
-      <c r="H48" s="81">
-        <v>0.98441749999999995</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="80">
-        <v>48</v>
-      </c>
-      <c r="B49" s="81">
-        <v>48</v>
-      </c>
-      <c r="C49" s="81">
-        <v>49</v>
-      </c>
-      <c r="D49" s="81">
-        <v>55</v>
-      </c>
-      <c r="E49" s="82">
-        <v>43944</v>
-      </c>
-      <c r="F49" s="81">
-        <v>0.86495029999999995</v>
-      </c>
-      <c r="G49" s="81">
-        <v>0.82808400000000004</v>
-      </c>
-      <c r="H49" s="81">
-        <v>0.90245940000000002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="80">
-        <v>49</v>
-      </c>
-      <c r="B50" s="81">
-        <v>49</v>
-      </c>
-      <c r="C50" s="81">
-        <v>50</v>
-      </c>
-      <c r="D50" s="81">
-        <v>56</v>
-      </c>
-      <c r="E50" s="82">
-        <v>43945</v>
-      </c>
-      <c r="F50" s="81">
-        <v>0.94871380000000005</v>
-      </c>
-      <c r="G50" s="81">
-        <v>0.91270410000000002</v>
-      </c>
-      <c r="H50" s="81">
-        <v>0.98432549999999996</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="80">
-        <v>50</v>
-      </c>
-      <c r="B51" s="81">
-        <v>50</v>
-      </c>
-      <c r="C51" s="81">
-        <v>51</v>
-      </c>
-      <c r="D51" s="81">
-        <v>57</v>
-      </c>
-      <c r="E51" s="82">
-        <v>43946</v>
-      </c>
-      <c r="F51" s="81">
-        <v>0.95103040000000005</v>
-      </c>
-      <c r="G51" s="81">
-        <v>0.91306699999999996</v>
-      </c>
-      <c r="H51" s="81">
-        <v>0.9886954</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="80">
-        <v>51</v>
-      </c>
-      <c r="B52" s="81">
-        <v>51</v>
-      </c>
-      <c r="C52" s="81">
-        <v>52</v>
-      </c>
-      <c r="D52" s="81">
-        <v>58</v>
-      </c>
-      <c r="E52" s="82">
-        <v>43947</v>
-      </c>
-      <c r="F52" s="81">
-        <v>0.95044309999999999</v>
-      </c>
-      <c r="G52" s="81">
-        <v>0.91631839999999998</v>
-      </c>
-      <c r="H52" s="81">
-        <v>0.98555000000000004</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="80">
-        <v>52</v>
-      </c>
-      <c r="B53" s="81">
-        <v>52</v>
-      </c>
-      <c r="C53" s="81">
-        <v>53</v>
-      </c>
-      <c r="D53" s="81">
-        <v>59</v>
-      </c>
-      <c r="E53" s="82">
-        <v>43948</v>
-      </c>
-      <c r="F53" s="81">
-        <v>0.83244569999999996</v>
-      </c>
-      <c r="G53" s="81">
-        <v>0.79988700000000001</v>
-      </c>
-      <c r="H53" s="81">
-        <v>0.86312619999999995</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="80">
-        <v>53</v>
-      </c>
-      <c r="B54" s="81">
-        <v>53</v>
-      </c>
-      <c r="C54" s="81">
-        <v>54</v>
-      </c>
-      <c r="D54" s="81">
-        <v>60</v>
-      </c>
-      <c r="E54" s="82">
-        <v>43949</v>
-      </c>
-      <c r="F54" s="81">
-        <v>0.7893635</v>
-      </c>
-      <c r="G54" s="81">
-        <v>0.7572217</v>
-      </c>
-      <c r="H54" s="81">
-        <v>0.81955529999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="80">
-        <v>54</v>
-      </c>
-      <c r="B55" s="81">
-        <v>54</v>
-      </c>
-      <c r="C55" s="81">
-        <v>55</v>
-      </c>
-      <c r="D55" s="81">
-        <v>61</v>
-      </c>
-      <c r="E55" s="82">
-        <v>43950</v>
-      </c>
-      <c r="F55" s="81">
-        <v>0.701098</v>
-      </c>
-      <c r="G55" s="81">
-        <v>0.66395930000000003</v>
-      </c>
-      <c r="H55" s="81">
-        <v>0.73717080000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="80">
-        <v>55</v>
-      </c>
-      <c r="B56" s="81">
-        <v>55</v>
-      </c>
-      <c r="C56" s="81">
-        <v>56</v>
-      </c>
-      <c r="D56" s="81">
-        <v>62</v>
-      </c>
-      <c r="E56" s="82">
-        <v>43951</v>
-      </c>
-      <c r="F56" s="81">
-        <v>0.78967019999999999</v>
-      </c>
-      <c r="G56" s="81">
-        <v>0.73691680000000004</v>
-      </c>
-      <c r="H56" s="81">
-        <v>0.84294069999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="80">
-        <v>56</v>
-      </c>
-      <c r="B57" s="81">
-        <v>56</v>
-      </c>
-      <c r="C57" s="81">
-        <v>57</v>
-      </c>
-      <c r="D57" s="81">
-        <v>63</v>
-      </c>
-      <c r="E57" s="82">
-        <v>43952</v>
-      </c>
-      <c r="F57" s="81">
-        <v>0.69659260000000001</v>
-      </c>
-      <c r="G57" s="81">
-        <v>0.64215440000000001</v>
-      </c>
-      <c r="H57" s="81">
-        <v>0.75700429999999996</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="80">
-        <v>57</v>
-      </c>
-      <c r="B58" s="81">
-        <v>57</v>
-      </c>
-      <c r="C58" s="81">
-        <v>58</v>
-      </c>
-      <c r="D58" s="81">
-        <v>64</v>
-      </c>
-      <c r="E58" s="82">
-        <v>43953</v>
-      </c>
-      <c r="F58" s="81">
-        <v>0.58620850000000002</v>
-      </c>
-      <c r="G58" s="81">
-        <v>0.53537029999999997</v>
-      </c>
-      <c r="H58" s="81">
-        <v>0.64308869999999996</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="80">
-        <v>58</v>
-      </c>
-      <c r="B59" s="81">
-        <v>58</v>
-      </c>
-      <c r="C59" s="81">
-        <v>59</v>
-      </c>
-      <c r="D59" s="81">
-        <v>65</v>
-      </c>
-      <c r="E59" s="82">
-        <v>43954</v>
-      </c>
-      <c r="F59" s="81">
-        <v>0.49946950000000001</v>
-      </c>
-      <c r="G59" s="81">
-        <v>0.45056980000000002</v>
-      </c>
-      <c r="H59" s="81">
-        <v>0.55053730000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="80">
-        <v>59</v>
-      </c>
-      <c r="B60" s="81">
-        <v>59</v>
-      </c>
-      <c r="C60" s="81">
-        <v>60</v>
-      </c>
-      <c r="D60" s="81">
-        <v>66</v>
-      </c>
-      <c r="E60" s="82">
-        <v>43955</v>
-      </c>
-      <c r="F60" s="81">
-        <v>0.58323009999999997</v>
-      </c>
-      <c r="G60" s="81">
-        <v>0.51504490000000003</v>
-      </c>
-      <c r="H60" s="81">
-        <v>0.66328390000000004</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="80">
-        <v>60</v>
-      </c>
-      <c r="B61" s="81">
-        <v>60</v>
-      </c>
-      <c r="C61" s="81">
-        <v>61</v>
-      </c>
-      <c r="D61" s="81">
-        <v>67</v>
-      </c>
-      <c r="E61" s="82">
-        <v>43956</v>
-      </c>
-      <c r="F61" s="81">
-        <v>0.6038829</v>
-      </c>
-      <c r="G61" s="81">
-        <v>0.52366630000000003</v>
-      </c>
-      <c r="H61" s="81">
-        <v>0.6898128</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="80">
-        <v>61</v>
-      </c>
-      <c r="B62" s="81">
-        <v>61</v>
-      </c>
-      <c r="C62" s="81">
-        <v>62</v>
-      </c>
-      <c r="D62" s="81">
-        <v>68</v>
-      </c>
-      <c r="E62" s="82">
-        <v>43957</v>
-      </c>
-      <c r="F62" s="81">
-        <v>0.80532440000000005</v>
-      </c>
-      <c r="G62" s="81">
-        <v>0.71458319999999997</v>
-      </c>
-      <c r="H62" s="81">
-        <v>0.92176559999999996</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -65245,19 +65432,19 @@
       <c r="O2" t="s">
         <v>154</v>
       </c>
-      <c r="R2" s="105" t="s">
+      <c r="R2" s="107" t="s">
         <v>152</v>
       </c>
-      <c r="S2" s="106"/>
-      <c r="T2" s="107"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="109"/>
       <c r="U2" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="V2" s="105" t="s">
+      <c r="V2" s="107" t="s">
         <v>153</v>
       </c>
-      <c r="W2" s="106"/>
-      <c r="X2" s="107"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="109"/>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="79">
@@ -65362,11 +65549,11 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="I5" s="105" t="s">
+      <c r="I5" s="107" t="s">
         <v>157</v>
       </c>
-      <c r="J5" s="106"/>
-      <c r="K5" s="107"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="109"/>
       <c r="N5">
         <v>3.58</v>
       </c>
